--- a/src/test/resources/Staff Data Upload With Formula.xlsx
+++ b/src/test/resources/Staff Data Upload With Formula.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/m_224557/Documents/GitHub/duplicate/rd-caseworker-ref-api/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E96B930F-2557-4441-A846-B14FDD19527E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B17E3FB6-3781-7447-B1E6-573259D1E572}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19520" activeTab="2" xr2:uid="{C3779BBE-D7A5-4756-9223-DEADF9C5B8AB}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19540" activeTab="2" xr2:uid="{C3779BBE-D7A5-4756-9223-DEADF9C5B8AB}"/>
   </bookViews>
   <sheets>
     <sheet name="Guidance" sheetId="11" r:id="rId1"/>
@@ -3650,7 +3650,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3736,12 +3736,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="15"/>
-      <color rgb="FF1D1C1D"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -3892,7 +3886,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -4008,9 +4002,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -4951,7 +4942,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="29" max="34" width="9.1640625" style="32" collapsed="1"/>
+    <col min="29" max="34" width="9.1640625" style="32"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="26" x14ac:dyDescent="0.3">
@@ -7457,8 +7448,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="38.33203125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="104.1640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="38.33203125" customWidth="1"/>
+    <col min="2" max="2" width="104.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="33" customFormat="1" x14ac:dyDescent="0.2">
@@ -7650,42 +7641,42 @@
   </sheetPr>
   <dimension ref="A1:AD50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="AC2" sqref="AC2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.83203125" style="40" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.6640625" style="40" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="30.1640625" style="40" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="20.6640625" style="40" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="20.6640625" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="62.5" style="40" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="33.83203125" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="49.83203125" style="40" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="32.1640625" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="15.5" style="40" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="25.5" style="40" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="19.5" style="40" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="24" style="40" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="24" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="21.33203125" style="40" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="21.33203125" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="19.1640625" style="40" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="19.1640625" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="19.1640625" style="40" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="19.1640625" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="16" style="40" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="16" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="14.5" style="40" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="14.5" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="17.33203125" style="40" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="17.33203125" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="14.5" style="40" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="14.5" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="25.5" style="40" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="9.1640625" style="40" collapsed="1"/>
+    <col min="1" max="1" width="21.83203125" style="40" customWidth="1"/>
+    <col min="2" max="2" width="24.6640625" style="40" customWidth="1"/>
+    <col min="3" max="3" width="30.1640625" style="40" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" style="40" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="62.5" style="40" customWidth="1"/>
+    <col min="7" max="7" width="33.83203125" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="49.83203125" style="40" customWidth="1"/>
+    <col min="9" max="9" width="32.1640625" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="15.5" style="40" customWidth="1"/>
+    <col min="11" max="11" width="25.5" style="40" customWidth="1"/>
+    <col min="12" max="12" width="19.5" style="40" customWidth="1"/>
+    <col min="13" max="13" width="24" style="40" customWidth="1"/>
+    <col min="14" max="14" width="24" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="21.33203125" style="40" customWidth="1"/>
+    <col min="16" max="16" width="21.33203125" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="19.1640625" style="40" customWidth="1"/>
+    <col min="18" max="18" width="19.1640625" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="19.1640625" style="40" customWidth="1"/>
+    <col min="20" max="20" width="19.1640625" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="16" style="40" customWidth="1"/>
+    <col min="22" max="22" width="16" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="14.5" style="40" customWidth="1"/>
+    <col min="24" max="24" width="14.5" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="17.33203125" style="40" customWidth="1"/>
+    <col min="26" max="26" width="17.33203125" hidden="1" customWidth="1"/>
+    <col min="27" max="27" width="14.5" style="40" customWidth="1"/>
+    <col min="28" max="28" width="14.5" hidden="1" customWidth="1"/>
+    <col min="29" max="29" width="25.5" style="40" customWidth="1"/>
+    <col min="30" max="30" width="9.1640625" style="40"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="42" customHeight="1" x14ac:dyDescent="0.2">
@@ -7780,89 +7771,89 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="2" spans="1:30" ht="19" x14ac:dyDescent="0.2">
-      <c r="A2" s="44" t="str">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A2" s="41" t="str">
         <f ca="1">TEXT(RANDBETWEEN(0,9999),"0000")&amp;CHAR(RANDBETWEEN(97,122))&amp;CHAR(RANDBETWEEN(97,122))</f>
-        <v>7944lf</v>
-      </c>
-      <c r="B2" s="44" t="str">
+        <v>3594ks</v>
+      </c>
+      <c r="B2" s="41" t="str">
         <f ca="1">TEXT(RANDBETWEEN(0,9999),"0000")&amp;CHAR(RANDBETWEEN(97,122))&amp;CHAR(RANDBETWEEN(97,122))</f>
-        <v>3678uf</v>
+        <v>4042fo</v>
       </c>
       <c r="C2" s="42" t="str">
         <f ca="1">CONCATENATE(A2,".",B2,RANDBETWEEN(1,999999),"@","justice.gov.uk")</f>
-        <v>7944lf.3678uf694906@justice.gov.uk</v>
+        <v>3594ks.4042fo29706@justice.gov.uk</v>
       </c>
       <c r="D2" s="41" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E2" s="1">
-        <f>_xlfn.IFNA(VLOOKUP(D2,Region!$A$2:$B$11,2),"")</f>
-        <v>2</v>
+        <f>IF(ISNA(VLOOKUP(D2,Region!$A$2:$B$11,2)),"",VLOOKUP(D2,Region!$A$2:$B$11,2))</f>
+        <v>3</v>
       </c>
       <c r="F2" s="41" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G2" s="1">
-        <f>_xlfn.IFNA(VLOOKUP(F2,'Base Locations'!$A$1:$F$341,2),"")</f>
-        <v>219164</v>
+        <f>IF(ISNA(VLOOKUP(F2,'Base Locations'!$A$1:$F$341,2)),"",VLOOKUP(F2,'Base Locations'!$A$1:$F$341,2))</f>
+        <v>271588</v>
       </c>
       <c r="H2" s="41" t="s">
         <v>74</v>
       </c>
       <c r="I2" s="1">
-        <f>_xlfn.IFNA(VLOOKUP(H2,'Base Locations'!A1:F341,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(H2,'Base Locations'!A1:F341,2)),"",VLOOKUP(H2,'Base Locations'!A1:F341,2))</f>
         <v>817181</v>
       </c>
       <c r="J2" s="41" t="s">
         <v>52</v>
       </c>
       <c r="K2" s="41" t="s">
+        <v>409</v>
+      </c>
+      <c r="L2" s="41" t="s">
         <v>408</v>
       </c>
-      <c r="L2" s="41" t="s">
-        <v>409</v>
-      </c>
       <c r="M2" s="41" t="s">
-        <v>13</v>
+        <v>1169</v>
       </c>
       <c r="N2" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(M2,Services!$A$1:$B$45,2),"")</f>
-        <v>BAB1</v>
+        <f>IF(ISNA(VLOOKUP(M2,Services!$A$1:$B$45,2)),"",VLOOKUP(M2,Services!$A$1:$B$45,2))</f>
+        <v>BHA3</v>
       </c>
       <c r="O2" s="41"/>
       <c r="P2" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(O2,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(O2,Services!$A$1:$B$45,2)),"",VLOOKUP(O2,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="Q2" s="41"/>
       <c r="R2" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(Q2,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(Q2,Services!$A$1:$B$45,2)),"",VLOOKUP(Q2,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="S2" s="41"/>
       <c r="T2" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(S2,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(S2,Services!$A$1:$B$45,2)),"",VLOOKUP(S2,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="U2" s="41"/>
       <c r="V2" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(U2,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(U2,Services!$A$1:$B$45,2)),"",VLOOKUP(U2,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="W2" s="41"/>
       <c r="X2" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(W2,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(W2,Services!$A$1:$B$45,2)),"",VLOOKUP(W2,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="Y2" s="41"/>
       <c r="Z2" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(Y2,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(Y2,Services!$A$1:$B$45,2)),"",VLOOKUP(Y2,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="AA2" s="41"/>
       <c r="AB2" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(AA2,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(AA2,Services!$A$1:$B$45,2)),"",VLOOKUP(AA2,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="AC2" s="41" t="s">
@@ -7878,17 +7869,17 @@
       <c r="C3" s="42"/>
       <c r="D3" s="41"/>
       <c r="E3" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(D3,Region!$A$2:$B$11,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(D3,Region!$A$2:$B$11,2)),"",VLOOKUP(D3,Region!$A$2:$B$11,2))</f>
         <v/>
       </c>
       <c r="F3" s="41"/>
       <c r="G3" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F3,'Base Locations'!$A$1:$F$341,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(F3,'Base Locations'!$A$1:$F$341,2)),"",VLOOKUP(F3,'Base Locations'!$A$1:$F$341,2))</f>
         <v/>
       </c>
       <c r="H3" s="41"/>
       <c r="I3" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(H3,'Base Locations'!A2:F342,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(H3,'Base Locations'!A2:F342,2)),"",VLOOKUP(H3,'Base Locations'!A2:F342,2))</f>
         <v/>
       </c>
       <c r="J3" s="41"/>
@@ -7896,42 +7887,42 @@
       <c r="L3" s="41"/>
       <c r="M3" s="41"/>
       <c r="N3" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(M3,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(M3,Services!$A$1:$B$45,2)),"",VLOOKUP(M3,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="O3" s="41"/>
       <c r="P3" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(O3,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(O3,Services!$A$1:$B$45,2)),"",VLOOKUP(O3,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="Q3" s="41"/>
       <c r="R3" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(Q3,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(Q3,Services!$A$1:$B$45,2)),"",VLOOKUP(Q3,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="S3" s="41"/>
       <c r="T3" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(S3,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(S3,Services!$A$1:$B$45,2)),"",VLOOKUP(S3,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="U3" s="41"/>
       <c r="V3" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(U3,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(U3,Services!$A$1:$B$45,2)),"",VLOOKUP(U3,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="W3" s="41"/>
       <c r="X3" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(W3,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(W3,Services!$A$1:$B$45,2)),"",VLOOKUP(W3,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="Y3" s="41"/>
       <c r="Z3" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(Y3,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(Y3,Services!$A$1:$B$45,2)),"",VLOOKUP(Y3,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="AA3" s="41"/>
       <c r="AB3" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(AA3,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(AA3,Services!$A$1:$B$45,2)),"",VLOOKUP(AA3,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="AC3" s="41"/>
@@ -7943,17 +7934,17 @@
       <c r="C4" s="42"/>
       <c r="D4" s="41"/>
       <c r="E4" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(D4,Region!$A$2:$B$11,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(D4,Region!$A$2:$B$11,2)),"",VLOOKUP(D4,Region!$A$2:$B$11,2))</f>
         <v/>
       </c>
       <c r="F4" s="41"/>
       <c r="G4" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F4,'Base Locations'!$A$1:$F$341,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(F4,'Base Locations'!$A$1:$F$341,2)),"",VLOOKUP(F4,'Base Locations'!$A$1:$F$341,2))</f>
         <v/>
       </c>
       <c r="H4" s="41"/>
       <c r="I4" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(H4,'Base Locations'!A3:F343,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(H4,'Base Locations'!A3:F343,2)),"",VLOOKUP(H4,'Base Locations'!A3:F343,2))</f>
         <v/>
       </c>
       <c r="J4" s="41"/>
@@ -7961,42 +7952,42 @@
       <c r="L4" s="41"/>
       <c r="M4" s="41"/>
       <c r="N4" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(M4,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(M4,Services!$A$1:$B$45,2)),"",VLOOKUP(M4,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="O4" s="41"/>
       <c r="P4" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(O4,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(O4,Services!$A$1:$B$45,2)),"",VLOOKUP(O4,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="Q4" s="41"/>
       <c r="R4" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(Q4,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(Q4,Services!$A$1:$B$45,2)),"",VLOOKUP(Q4,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="S4" s="41"/>
       <c r="T4" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(S4,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(S4,Services!$A$1:$B$45,2)),"",VLOOKUP(S4,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="U4" s="41"/>
       <c r="V4" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(U4,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(U4,Services!$A$1:$B$45,2)),"",VLOOKUP(U4,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="W4" s="41"/>
       <c r="X4" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(W4,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(W4,Services!$A$1:$B$45,2)),"",VLOOKUP(W4,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="Y4" s="41"/>
       <c r="Z4" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(Y4,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(Y4,Services!$A$1:$B$45,2)),"",VLOOKUP(Y4,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="AA4" s="41"/>
       <c r="AB4" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(AA4,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(AA4,Services!$A$1:$B$45,2)),"",VLOOKUP(AA4,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="AC4" s="41"/>
@@ -8008,17 +7999,17 @@
       <c r="C5" s="42"/>
       <c r="D5" s="41"/>
       <c r="E5" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(D5,Region!$A$2:$B$11,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(D5,Region!$A$2:$B$11,2)),"",VLOOKUP(D5,Region!$A$2:$B$11,2))</f>
         <v/>
       </c>
       <c r="F5" s="41"/>
       <c r="G5" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F5,'Base Locations'!$A$1:$F$341,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(F5,'Base Locations'!$A$1:$F$341,2)),"",VLOOKUP(F5,'Base Locations'!$A$1:$F$341,2))</f>
         <v/>
       </c>
       <c r="H5" s="41"/>
       <c r="I5" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(H5,'Base Locations'!A4:F344,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(H5,'Base Locations'!A4:F344,2)),"",VLOOKUP(H5,'Base Locations'!A4:F344,2))</f>
         <v/>
       </c>
       <c r="J5" s="41"/>
@@ -8026,42 +8017,42 @@
       <c r="L5" s="41"/>
       <c r="M5" s="41"/>
       <c r="N5" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(M5,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(M5,Services!$A$1:$B$45,2)),"",VLOOKUP(M5,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="O5" s="41"/>
       <c r="P5" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(O5,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(O5,Services!$A$1:$B$45,2)),"",VLOOKUP(O5,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="Q5" s="41"/>
       <c r="R5" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(Q5,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(Q5,Services!$A$1:$B$45,2)),"",VLOOKUP(Q5,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="S5" s="41"/>
       <c r="T5" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(S5,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(S5,Services!$A$1:$B$45,2)),"",VLOOKUP(S5,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="U5" s="41"/>
       <c r="V5" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(U5,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(U5,Services!$A$1:$B$45,2)),"",VLOOKUP(U5,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="W5" s="41"/>
       <c r="X5" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(W5,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(W5,Services!$A$1:$B$45,2)),"",VLOOKUP(W5,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="Y5" s="41"/>
       <c r="Z5" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(Y5,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(Y5,Services!$A$1:$B$45,2)),"",VLOOKUP(Y5,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="AA5" s="41"/>
       <c r="AB5" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(AA5,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(AA5,Services!$A$1:$B$45,2)),"",VLOOKUP(AA5,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="AC5" s="41"/>
@@ -8073,17 +8064,17 @@
       <c r="C6" s="42"/>
       <c r="D6" s="41"/>
       <c r="E6" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(D6,Region!$A$2:$B$11,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(D6,Region!$A$2:$B$11,2)),"",VLOOKUP(D6,Region!$A$2:$B$11,2))</f>
         <v/>
       </c>
       <c r="F6" s="41"/>
       <c r="G6" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F6,'Base Locations'!$A$1:$F$341,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(F6,'Base Locations'!$A$1:$F$341,2)),"",VLOOKUP(F6,'Base Locations'!$A$1:$F$341,2))</f>
         <v/>
       </c>
       <c r="H6" s="41"/>
       <c r="I6" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(H6,'Base Locations'!A5:F345,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(H6,'Base Locations'!A5:F345,2)),"",VLOOKUP(H6,'Base Locations'!A5:F345,2))</f>
         <v/>
       </c>
       <c r="J6" s="41"/>
@@ -8091,42 +8082,42 @@
       <c r="L6" s="41"/>
       <c r="M6" s="41"/>
       <c r="N6" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(M6,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(M6,Services!$A$1:$B$45,2)),"",VLOOKUP(M6,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="O6" s="41"/>
       <c r="P6" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(O6,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(O6,Services!$A$1:$B$45,2)),"",VLOOKUP(O6,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="Q6" s="41"/>
       <c r="R6" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(Q6,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(Q6,Services!$A$1:$B$45,2)),"",VLOOKUP(Q6,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="S6" s="41"/>
       <c r="T6" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(S6,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(S6,Services!$A$1:$B$45,2)),"",VLOOKUP(S6,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="U6" s="41"/>
       <c r="V6" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(U6,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(U6,Services!$A$1:$B$45,2)),"",VLOOKUP(U6,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="W6" s="41"/>
       <c r="X6" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(W6,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(W6,Services!$A$1:$B$45,2)),"",VLOOKUP(W6,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="Y6" s="41"/>
       <c r="Z6" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(Y6,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(Y6,Services!$A$1:$B$45,2)),"",VLOOKUP(Y6,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="AA6" s="41"/>
       <c r="AB6" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(AA6,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(AA6,Services!$A$1:$B$45,2)),"",VLOOKUP(AA6,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="AC6" s="41"/>
@@ -8138,17 +8129,17 @@
       <c r="C7" s="42"/>
       <c r="D7" s="41"/>
       <c r="E7" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(D7,Region!$A$2:$B$11,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(D7,Region!$A$2:$B$11,2)),"",VLOOKUP(D7,Region!$A$2:$B$11,2))</f>
         <v/>
       </c>
       <c r="F7" s="41"/>
       <c r="G7" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F7,'Base Locations'!$A$1:$F$341,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(F7,'Base Locations'!$A$1:$F$341,2)),"",VLOOKUP(F7,'Base Locations'!$A$1:$F$341,2))</f>
         <v/>
       </c>
       <c r="H7" s="41"/>
       <c r="I7" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(H7,'Base Locations'!A6:F346,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(H7,'Base Locations'!A6:F346,2)),"",VLOOKUP(H7,'Base Locations'!A6:F346,2))</f>
         <v/>
       </c>
       <c r="J7" s="41"/>
@@ -8156,42 +8147,42 @@
       <c r="L7" s="41"/>
       <c r="M7" s="41"/>
       <c r="N7" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(M7,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(M7,Services!$A$1:$B$45,2)),"",VLOOKUP(M7,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="O7" s="41"/>
       <c r="P7" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(O7,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(O7,Services!$A$1:$B$45,2)),"",VLOOKUP(O7,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="Q7" s="41"/>
       <c r="R7" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(Q7,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(Q7,Services!$A$1:$B$45,2)),"",VLOOKUP(Q7,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="S7" s="41"/>
       <c r="T7" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(S7,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(S7,Services!$A$1:$B$45,2)),"",VLOOKUP(S7,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="U7" s="41"/>
       <c r="V7" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(U7,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(U7,Services!$A$1:$B$45,2)),"",VLOOKUP(U7,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="W7" s="41"/>
       <c r="X7" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(W7,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(W7,Services!$A$1:$B$45,2)),"",VLOOKUP(W7,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="Y7" s="41"/>
       <c r="Z7" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(Y7,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(Y7,Services!$A$1:$B$45,2)),"",VLOOKUP(Y7,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="AA7" s="41"/>
       <c r="AB7" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(AA7,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(AA7,Services!$A$1:$B$45,2)),"",VLOOKUP(AA7,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="AC7" s="41"/>
@@ -8203,17 +8194,17 @@
       <c r="C8" s="42"/>
       <c r="D8" s="41"/>
       <c r="E8" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(D8,Region!$A$2:$B$11,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(D8,Region!$A$2:$B$11,2)),"",VLOOKUP(D8,Region!$A$2:$B$11,2))</f>
         <v/>
       </c>
       <c r="F8" s="41"/>
       <c r="G8" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F8,'Base Locations'!$A$1:$F$341,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(F8,'Base Locations'!$A$1:$F$341,2)),"",VLOOKUP(F8,'Base Locations'!$A$1:$F$341,2))</f>
         <v/>
       </c>
       <c r="H8" s="41"/>
       <c r="I8" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(H8,'Base Locations'!A7:F347,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(H8,'Base Locations'!A7:F347,2)),"",VLOOKUP(H8,'Base Locations'!A7:F347,2))</f>
         <v/>
       </c>
       <c r="J8" s="41"/>
@@ -8221,42 +8212,42 @@
       <c r="L8" s="41"/>
       <c r="M8" s="41"/>
       <c r="N8" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(M8,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(M8,Services!$A$1:$B$45,2)),"",VLOOKUP(M8,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="O8" s="41"/>
       <c r="P8" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(O8,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(O8,Services!$A$1:$B$45,2)),"",VLOOKUP(O8,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="Q8" s="41"/>
       <c r="R8" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(Q8,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(Q8,Services!$A$1:$B$45,2)),"",VLOOKUP(Q8,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="S8" s="41"/>
       <c r="T8" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(S8,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(S8,Services!$A$1:$B$45,2)),"",VLOOKUP(S8,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="U8" s="41"/>
       <c r="V8" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(U8,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(U8,Services!$A$1:$B$45,2)),"",VLOOKUP(U8,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="W8" s="41"/>
       <c r="X8" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(W8,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(W8,Services!$A$1:$B$45,2)),"",VLOOKUP(W8,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="Y8" s="41"/>
       <c r="Z8" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(Y8,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(Y8,Services!$A$1:$B$45,2)),"",VLOOKUP(Y8,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="AA8" s="41"/>
       <c r="AB8" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(AA8,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(AA8,Services!$A$1:$B$45,2)),"",VLOOKUP(AA8,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="AC8" s="41"/>
@@ -8268,17 +8259,17 @@
       <c r="C9" s="42"/>
       <c r="D9" s="41"/>
       <c r="E9" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(D9,Region!$A$2:$B$11,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(D9,Region!$A$2:$B$11,2)),"",VLOOKUP(D9,Region!$A$2:$B$11,2))</f>
         <v/>
       </c>
       <c r="F9" s="41"/>
       <c r="G9" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F9,'Base Locations'!$A$1:$F$341,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(F9,'Base Locations'!$A$1:$F$341,2)),"",VLOOKUP(F9,'Base Locations'!$A$1:$F$341,2))</f>
         <v/>
       </c>
       <c r="H9" s="41"/>
       <c r="I9" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(H9,'Base Locations'!A8:F348,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(H9,'Base Locations'!A8:F348,2)),"",VLOOKUP(H9,'Base Locations'!A8:F348,2))</f>
         <v/>
       </c>
       <c r="J9" s="41"/>
@@ -8286,42 +8277,42 @@
       <c r="L9" s="41"/>
       <c r="M9" s="41"/>
       <c r="N9" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(M9,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(M9,Services!$A$1:$B$45,2)),"",VLOOKUP(M9,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="O9" s="41"/>
       <c r="P9" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(O9,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(O9,Services!$A$1:$B$45,2)),"",VLOOKUP(O9,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="Q9" s="41"/>
       <c r="R9" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(Q9,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(Q9,Services!$A$1:$B$45,2)),"",VLOOKUP(Q9,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="S9" s="41"/>
       <c r="T9" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(S9,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(S9,Services!$A$1:$B$45,2)),"",VLOOKUP(S9,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="U9" s="41"/>
       <c r="V9" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(U9,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(U9,Services!$A$1:$B$45,2)),"",VLOOKUP(U9,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="W9" s="41"/>
       <c r="X9" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(W9,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(W9,Services!$A$1:$B$45,2)),"",VLOOKUP(W9,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="Y9" s="41"/>
       <c r="Z9" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(Y9,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(Y9,Services!$A$1:$B$45,2)),"",VLOOKUP(Y9,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="AA9" s="41"/>
       <c r="AB9" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(AA9,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(AA9,Services!$A$1:$B$45,2)),"",VLOOKUP(AA9,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="AC9" s="41"/>
@@ -8333,17 +8324,17 @@
       <c r="C10" s="42"/>
       <c r="D10" s="41"/>
       <c r="E10" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(D10,Region!$A$2:$B$11,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(D10,Region!$A$2:$B$11,2)),"",VLOOKUP(D10,Region!$A$2:$B$11,2))</f>
         <v/>
       </c>
       <c r="F10" s="41"/>
       <c r="G10" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F10,'Base Locations'!$A$1:$F$341,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(F10,'Base Locations'!$A$1:$F$341,2)),"",VLOOKUP(F10,'Base Locations'!$A$1:$F$341,2))</f>
         <v/>
       </c>
       <c r="H10" s="41"/>
       <c r="I10" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(H10,'Base Locations'!A9:F349,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(H10,'Base Locations'!A9:F349,2)),"",VLOOKUP(H10,'Base Locations'!A9:F349,2))</f>
         <v/>
       </c>
       <c r="J10" s="41"/>
@@ -8351,42 +8342,42 @@
       <c r="L10" s="41"/>
       <c r="M10" s="41"/>
       <c r="N10" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(M10,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(M10,Services!$A$1:$B$45,2)),"",VLOOKUP(M10,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="O10" s="41"/>
       <c r="P10" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(O10,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(O10,Services!$A$1:$B$45,2)),"",VLOOKUP(O10,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="Q10" s="41"/>
       <c r="R10" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(Q10,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(Q10,Services!$A$1:$B$45,2)),"",VLOOKUP(Q10,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="S10" s="41"/>
       <c r="T10" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(S10,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(S10,Services!$A$1:$B$45,2)),"",VLOOKUP(S10,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="U10" s="41"/>
       <c r="V10" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(U10,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(U10,Services!$A$1:$B$45,2)),"",VLOOKUP(U10,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="W10" s="41"/>
       <c r="X10" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(W10,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(W10,Services!$A$1:$B$45,2)),"",VLOOKUP(W10,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="Y10" s="41"/>
       <c r="Z10" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(Y10,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(Y10,Services!$A$1:$B$45,2)),"",VLOOKUP(Y10,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="AA10" s="41"/>
       <c r="AB10" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(AA10,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(AA10,Services!$A$1:$B$45,2)),"",VLOOKUP(AA10,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="AC10" s="41"/>
@@ -8398,17 +8389,17 @@
       <c r="C11" s="42"/>
       <c r="D11" s="41"/>
       <c r="E11" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(D11,Region!$A$2:$B$11,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(D11,Region!$A$2:$B$11,2)),"",VLOOKUP(D11,Region!$A$2:$B$11,2))</f>
         <v/>
       </c>
       <c r="F11" s="41"/>
       <c r="G11" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F11,'Base Locations'!$A$1:$F$341,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(F11,'Base Locations'!$A$1:$F$341,2)),"",VLOOKUP(F11,'Base Locations'!$A$1:$F$341,2))</f>
         <v/>
       </c>
       <c r="H11" s="41"/>
       <c r="I11" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(H11,'Base Locations'!A10:F350,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(H11,'Base Locations'!A10:F350,2)),"",VLOOKUP(H11,'Base Locations'!A10:F350,2))</f>
         <v/>
       </c>
       <c r="J11" s="41"/>
@@ -8416,42 +8407,42 @@
       <c r="L11" s="41"/>
       <c r="M11" s="41"/>
       <c r="N11" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(M11,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(M11,Services!$A$1:$B$45,2)),"",VLOOKUP(M11,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="O11" s="41"/>
       <c r="P11" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(O11,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(O11,Services!$A$1:$B$45,2)),"",VLOOKUP(O11,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="Q11" s="41"/>
       <c r="R11" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(Q11,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(Q11,Services!$A$1:$B$45,2)),"",VLOOKUP(Q11,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="S11" s="41"/>
       <c r="T11" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(S11,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(S11,Services!$A$1:$B$45,2)),"",VLOOKUP(S11,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="U11" s="41"/>
       <c r="V11" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(U11,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(U11,Services!$A$1:$B$45,2)),"",VLOOKUP(U11,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="W11" s="41"/>
       <c r="X11" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(W11,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(W11,Services!$A$1:$B$45,2)),"",VLOOKUP(W11,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="Y11" s="41"/>
       <c r="Z11" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(Y11,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(Y11,Services!$A$1:$B$45,2)),"",VLOOKUP(Y11,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="AA11" s="41"/>
       <c r="AB11" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(AA11,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(AA11,Services!$A$1:$B$45,2)),"",VLOOKUP(AA11,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="AC11" s="41"/>
@@ -8463,17 +8454,17 @@
       <c r="C12" s="42"/>
       <c r="D12" s="41"/>
       <c r="E12" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(D12,Region!$A$2:$B$11,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(D12,Region!$A$2:$B$11,2)),"",VLOOKUP(D12,Region!$A$2:$B$11,2))</f>
         <v/>
       </c>
       <c r="F12" s="41"/>
       <c r="G12" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F12,'Base Locations'!$A$1:$F$341,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(F12,'Base Locations'!$A$1:$F$341,2)),"",VLOOKUP(F12,'Base Locations'!$A$1:$F$341,2))</f>
         <v/>
       </c>
       <c r="H12" s="41"/>
       <c r="I12" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(H12,'Base Locations'!A11:F351,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(H12,'Base Locations'!A11:F351,2)),"",VLOOKUP(H12,'Base Locations'!A11:F351,2))</f>
         <v/>
       </c>
       <c r="J12" s="41"/>
@@ -8481,42 +8472,42 @@
       <c r="L12" s="41"/>
       <c r="M12" s="41"/>
       <c r="N12" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(M12,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(M12,Services!$A$1:$B$45,2)),"",VLOOKUP(M12,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="O12" s="41"/>
       <c r="P12" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(O12,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(O12,Services!$A$1:$B$45,2)),"",VLOOKUP(O12,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="Q12" s="41"/>
       <c r="R12" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(Q12,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(Q12,Services!$A$1:$B$45,2)),"",VLOOKUP(Q12,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="S12" s="41"/>
       <c r="T12" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(S12,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(S12,Services!$A$1:$B$45,2)),"",VLOOKUP(S12,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="U12" s="41"/>
       <c r="V12" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(U12,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(U12,Services!$A$1:$B$45,2)),"",VLOOKUP(U12,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="W12" s="41"/>
       <c r="X12" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(W12,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(W12,Services!$A$1:$B$45,2)),"",VLOOKUP(W12,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="Y12" s="41"/>
       <c r="Z12" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(Y12,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(Y12,Services!$A$1:$B$45,2)),"",VLOOKUP(Y12,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="AA12" s="41"/>
       <c r="AB12" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(AA12,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(AA12,Services!$A$1:$B$45,2)),"",VLOOKUP(AA12,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="AC12" s="41"/>
@@ -8528,17 +8519,17 @@
       <c r="C13" s="42"/>
       <c r="D13" s="41"/>
       <c r="E13" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(D13,Region!$A$2:$B$11,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(D13,Region!$A$2:$B$11,2)),"",VLOOKUP(D13,Region!$A$2:$B$11,2))</f>
         <v/>
       </c>
       <c r="F13" s="41"/>
       <c r="G13" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F13,'Base Locations'!$A$1:$F$341,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(F13,'Base Locations'!$A$1:$F$341,2)),"",VLOOKUP(F13,'Base Locations'!$A$1:$F$341,2))</f>
         <v/>
       </c>
       <c r="H13" s="41"/>
       <c r="I13" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(H13,'Base Locations'!A12:F352,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(H13,'Base Locations'!A12:F352,2)),"",VLOOKUP(H13,'Base Locations'!A12:F352,2))</f>
         <v/>
       </c>
       <c r="J13" s="41"/>
@@ -8546,42 +8537,42 @@
       <c r="L13" s="41"/>
       <c r="M13" s="41"/>
       <c r="N13" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(M13,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(M13,Services!$A$1:$B$45,2)),"",VLOOKUP(M13,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="O13" s="41"/>
       <c r="P13" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(O13,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(O13,Services!$A$1:$B$45,2)),"",VLOOKUP(O13,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="Q13" s="41"/>
       <c r="R13" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(Q13,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(Q13,Services!$A$1:$B$45,2)),"",VLOOKUP(Q13,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="S13" s="41"/>
       <c r="T13" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(S13,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(S13,Services!$A$1:$B$45,2)),"",VLOOKUP(S13,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="U13" s="41"/>
       <c r="V13" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(U13,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(U13,Services!$A$1:$B$45,2)),"",VLOOKUP(U13,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="W13" s="41"/>
       <c r="X13" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(W13,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(W13,Services!$A$1:$B$45,2)),"",VLOOKUP(W13,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="Y13" s="41"/>
       <c r="Z13" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(Y13,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(Y13,Services!$A$1:$B$45,2)),"",VLOOKUP(Y13,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="AA13" s="41"/>
       <c r="AB13" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(AA13,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(AA13,Services!$A$1:$B$45,2)),"",VLOOKUP(AA13,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="AC13" s="41"/>
@@ -8593,17 +8584,17 @@
       <c r="C14" s="42"/>
       <c r="D14" s="41"/>
       <c r="E14" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(D14,Region!$A$2:$B$11,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(D14,Region!$A$2:$B$11,2)),"",VLOOKUP(D14,Region!$A$2:$B$11,2))</f>
         <v/>
       </c>
       <c r="F14" s="41"/>
       <c r="G14" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F14,'Base Locations'!$A$1:$F$341,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(F14,'Base Locations'!$A$1:$F$341,2)),"",VLOOKUP(F14,'Base Locations'!$A$1:$F$341,2))</f>
         <v/>
       </c>
       <c r="H14" s="41"/>
       <c r="I14" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(H14,'Base Locations'!A13:F353,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(H14,'Base Locations'!A13:F353,2)),"",VLOOKUP(H14,'Base Locations'!A13:F353,2))</f>
         <v/>
       </c>
       <c r="J14" s="41"/>
@@ -8611,42 +8602,42 @@
       <c r="L14" s="41"/>
       <c r="M14" s="41"/>
       <c r="N14" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(M14,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(M14,Services!$A$1:$B$45,2)),"",VLOOKUP(M14,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="O14" s="41"/>
       <c r="P14" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(O14,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(O14,Services!$A$1:$B$45,2)),"",VLOOKUP(O14,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="Q14" s="41"/>
       <c r="R14" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(Q14,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(Q14,Services!$A$1:$B$45,2)),"",VLOOKUP(Q14,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="S14" s="41"/>
       <c r="T14" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(S14,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(S14,Services!$A$1:$B$45,2)),"",VLOOKUP(S14,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="U14" s="41"/>
       <c r="V14" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(U14,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(U14,Services!$A$1:$B$45,2)),"",VLOOKUP(U14,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="W14" s="41"/>
       <c r="X14" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(W14,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(W14,Services!$A$1:$B$45,2)),"",VLOOKUP(W14,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="Y14" s="41"/>
       <c r="Z14" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(Y14,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(Y14,Services!$A$1:$B$45,2)),"",VLOOKUP(Y14,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="AA14" s="41"/>
       <c r="AB14" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(AA14,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(AA14,Services!$A$1:$B$45,2)),"",VLOOKUP(AA14,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="AC14" s="41"/>
@@ -8658,17 +8649,17 @@
       <c r="C15" s="42"/>
       <c r="D15" s="41"/>
       <c r="E15" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(D15,Region!$A$2:$B$11,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(D15,Region!$A$2:$B$11,2)),"",VLOOKUP(D15,Region!$A$2:$B$11,2))</f>
         <v/>
       </c>
       <c r="F15" s="41"/>
       <c r="G15" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F15,'Base Locations'!$A$1:$F$341,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(F15,'Base Locations'!$A$1:$F$341,2)),"",VLOOKUP(F15,'Base Locations'!$A$1:$F$341,2))</f>
         <v/>
       </c>
       <c r="H15" s="41"/>
       <c r="I15" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(H15,'Base Locations'!A14:F354,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(H15,'Base Locations'!A14:F354,2)),"",VLOOKUP(H15,'Base Locations'!A14:F354,2))</f>
         <v/>
       </c>
       <c r="J15" s="41"/>
@@ -8676,42 +8667,42 @@
       <c r="L15" s="41"/>
       <c r="M15" s="41"/>
       <c r="N15" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(M15,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(M15,Services!$A$1:$B$45,2)),"",VLOOKUP(M15,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="O15" s="41"/>
       <c r="P15" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(O15,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(O15,Services!$A$1:$B$45,2)),"",VLOOKUP(O15,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="Q15" s="41"/>
       <c r="R15" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(Q15,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(Q15,Services!$A$1:$B$45,2)),"",VLOOKUP(Q15,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="S15" s="41"/>
       <c r="T15" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(S15,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(S15,Services!$A$1:$B$45,2)),"",VLOOKUP(S15,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="U15" s="41"/>
       <c r="V15" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(U15,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(U15,Services!$A$1:$B$45,2)),"",VLOOKUP(U15,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="W15" s="41"/>
       <c r="X15" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(W15,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(W15,Services!$A$1:$B$45,2)),"",VLOOKUP(W15,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="Y15" s="41"/>
       <c r="Z15" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(Y15,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(Y15,Services!$A$1:$B$45,2)),"",VLOOKUP(Y15,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="AA15" s="41"/>
       <c r="AB15" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(AA15,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(AA15,Services!$A$1:$B$45,2)),"",VLOOKUP(AA15,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="AC15" s="41"/>
@@ -8723,17 +8714,17 @@
       <c r="C16" s="42"/>
       <c r="D16" s="41"/>
       <c r="E16" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(D16,Region!$A$2:$B$11,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(D16,Region!$A$2:$B$11,2)),"",VLOOKUP(D16,Region!$A$2:$B$11,2))</f>
         <v/>
       </c>
       <c r="F16" s="41"/>
       <c r="G16" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F16,'Base Locations'!$A$1:$F$341,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(F16,'Base Locations'!$A$1:$F$341,2)),"",VLOOKUP(F16,'Base Locations'!$A$1:$F$341,2))</f>
         <v/>
       </c>
       <c r="H16" s="41"/>
       <c r="I16" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(H16,'Base Locations'!A15:F355,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(H16,'Base Locations'!A15:F355,2)),"",VLOOKUP(H16,'Base Locations'!A15:F355,2))</f>
         <v/>
       </c>
       <c r="J16" s="41"/>
@@ -8741,42 +8732,42 @@
       <c r="L16" s="41"/>
       <c r="M16" s="41"/>
       <c r="N16" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(M16,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(M16,Services!$A$1:$B$45,2)),"",VLOOKUP(M16,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="O16" s="41"/>
       <c r="P16" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(O16,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(O16,Services!$A$1:$B$45,2)),"",VLOOKUP(O16,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="Q16" s="41"/>
       <c r="R16" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(Q16,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(Q16,Services!$A$1:$B$45,2)),"",VLOOKUP(Q16,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="S16" s="41"/>
       <c r="T16" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(S16,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(S16,Services!$A$1:$B$45,2)),"",VLOOKUP(S16,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="U16" s="41"/>
       <c r="V16" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(U16,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(U16,Services!$A$1:$B$45,2)),"",VLOOKUP(U16,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="W16" s="41"/>
       <c r="X16" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(W16,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(W16,Services!$A$1:$B$45,2)),"",VLOOKUP(W16,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="Y16" s="41"/>
       <c r="Z16" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(Y16,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(Y16,Services!$A$1:$B$45,2)),"",VLOOKUP(Y16,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="AA16" s="41"/>
       <c r="AB16" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(AA16,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(AA16,Services!$A$1:$B$45,2)),"",VLOOKUP(AA16,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="AC16" s="41"/>
@@ -8788,17 +8779,17 @@
       <c r="C17" s="42"/>
       <c r="D17" s="41"/>
       <c r="E17" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(D17,Region!$A$2:$B$11,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(D17,Region!$A$2:$B$11,2)),"",VLOOKUP(D17,Region!$A$2:$B$11,2))</f>
         <v/>
       </c>
       <c r="F17" s="41"/>
       <c r="G17" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F17,'Base Locations'!$A$1:$F$341,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(F17,'Base Locations'!$A$1:$F$341,2)),"",VLOOKUP(F17,'Base Locations'!$A$1:$F$341,2))</f>
         <v/>
       </c>
       <c r="H17" s="41"/>
       <c r="I17" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(H17,'Base Locations'!A16:F356,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(H17,'Base Locations'!A16:F356,2)),"",VLOOKUP(H17,'Base Locations'!A16:F356,2))</f>
         <v/>
       </c>
       <c r="J17" s="41"/>
@@ -8806,42 +8797,42 @@
       <c r="L17" s="41"/>
       <c r="M17" s="41"/>
       <c r="N17" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(M17,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(M17,Services!$A$1:$B$45,2)),"",VLOOKUP(M17,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="O17" s="41"/>
       <c r="P17" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(O17,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(O17,Services!$A$1:$B$45,2)),"",VLOOKUP(O17,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="Q17" s="41"/>
       <c r="R17" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(Q17,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(Q17,Services!$A$1:$B$45,2)),"",VLOOKUP(Q17,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="S17" s="41"/>
       <c r="T17" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(S17,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(S17,Services!$A$1:$B$45,2)),"",VLOOKUP(S17,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="U17" s="41"/>
       <c r="V17" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(U17,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(U17,Services!$A$1:$B$45,2)),"",VLOOKUP(U17,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="W17" s="41"/>
       <c r="X17" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(W17,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(W17,Services!$A$1:$B$45,2)),"",VLOOKUP(W17,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="Y17" s="41"/>
       <c r="Z17" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(Y17,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(Y17,Services!$A$1:$B$45,2)),"",VLOOKUP(Y17,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="AA17" s="41"/>
       <c r="AB17" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(AA17,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(AA17,Services!$A$1:$B$45,2)),"",VLOOKUP(AA17,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="AC17" s="41"/>
@@ -8853,17 +8844,17 @@
       <c r="C18" s="42"/>
       <c r="D18" s="41"/>
       <c r="E18" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(D18,Region!$A$2:$B$11,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(D18,Region!$A$2:$B$11,2)),"",VLOOKUP(D18,Region!$A$2:$B$11,2))</f>
         <v/>
       </c>
       <c r="F18" s="41"/>
       <c r="G18" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F18,'Base Locations'!$A$1:$F$341,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(F18,'Base Locations'!$A$1:$F$341,2)),"",VLOOKUP(F18,'Base Locations'!$A$1:$F$341,2))</f>
         <v/>
       </c>
       <c r="H18" s="41"/>
       <c r="I18" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(H18,'Base Locations'!A17:F357,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(H18,'Base Locations'!A17:F357,2)),"",VLOOKUP(H18,'Base Locations'!A17:F357,2))</f>
         <v/>
       </c>
       <c r="J18" s="41"/>
@@ -8871,42 +8862,42 @@
       <c r="L18" s="41"/>
       <c r="M18" s="41"/>
       <c r="N18" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(M18,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(M18,Services!$A$1:$B$45,2)),"",VLOOKUP(M18,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="O18" s="41"/>
       <c r="P18" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(O18,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(O18,Services!$A$1:$B$45,2)),"",VLOOKUP(O18,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="Q18" s="41"/>
       <c r="R18" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(Q18,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(Q18,Services!$A$1:$B$45,2)),"",VLOOKUP(Q18,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="S18" s="41"/>
       <c r="T18" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(S18,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(S18,Services!$A$1:$B$45,2)),"",VLOOKUP(S18,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="U18" s="41"/>
       <c r="V18" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(U18,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(U18,Services!$A$1:$B$45,2)),"",VLOOKUP(U18,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="W18" s="41"/>
       <c r="X18" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(W18,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(W18,Services!$A$1:$B$45,2)),"",VLOOKUP(W18,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="Y18" s="41"/>
       <c r="Z18" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(Y18,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(Y18,Services!$A$1:$B$45,2)),"",VLOOKUP(Y18,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="AA18" s="41"/>
       <c r="AB18" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(AA18,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(AA18,Services!$A$1:$B$45,2)),"",VLOOKUP(AA18,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="AC18" s="41"/>
@@ -8918,17 +8909,17 @@
       <c r="C19" s="42"/>
       <c r="D19" s="41"/>
       <c r="E19" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(D19,Region!$A$2:$B$11,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(D19,Region!$A$2:$B$11,2)),"",VLOOKUP(D19,Region!$A$2:$B$11,2))</f>
         <v/>
       </c>
       <c r="F19" s="41"/>
       <c r="G19" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F19,'Base Locations'!$A$1:$F$341,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(F19,'Base Locations'!$A$1:$F$341,2)),"",VLOOKUP(F19,'Base Locations'!$A$1:$F$341,2))</f>
         <v/>
       </c>
       <c r="H19" s="41"/>
       <c r="I19" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(H19,'Base Locations'!A18:F358,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(H19,'Base Locations'!A18:F358,2)),"",VLOOKUP(H19,'Base Locations'!A18:F358,2))</f>
         <v/>
       </c>
       <c r="J19" s="41"/>
@@ -8936,42 +8927,42 @@
       <c r="L19" s="41"/>
       <c r="M19" s="41"/>
       <c r="N19" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(M19,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(M19,Services!$A$1:$B$45,2)),"",VLOOKUP(M19,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="O19" s="41"/>
       <c r="P19" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(O19,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(O19,Services!$A$1:$B$45,2)),"",VLOOKUP(O19,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="Q19" s="41"/>
       <c r="R19" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(Q19,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(Q19,Services!$A$1:$B$45,2)),"",VLOOKUP(Q19,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="S19" s="41"/>
       <c r="T19" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(S19,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(S19,Services!$A$1:$B$45,2)),"",VLOOKUP(S19,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="U19" s="41"/>
       <c r="V19" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(U19,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(U19,Services!$A$1:$B$45,2)),"",VLOOKUP(U19,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="W19" s="41"/>
       <c r="X19" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(W19,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(W19,Services!$A$1:$B$45,2)),"",VLOOKUP(W19,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="Y19" s="41"/>
       <c r="Z19" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(Y19,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(Y19,Services!$A$1:$B$45,2)),"",VLOOKUP(Y19,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="AA19" s="41"/>
       <c r="AB19" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(AA19,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(AA19,Services!$A$1:$B$45,2)),"",VLOOKUP(AA19,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="AC19" s="41"/>
@@ -8983,17 +8974,17 @@
       <c r="C20" s="42"/>
       <c r="D20" s="41"/>
       <c r="E20" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(D20,Region!$A$2:$B$11,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(D20,Region!$A$2:$B$11,2)),"",VLOOKUP(D20,Region!$A$2:$B$11,2))</f>
         <v/>
       </c>
       <c r="F20" s="41"/>
       <c r="G20" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F20,'Base Locations'!$A$1:$F$341,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(F20,'Base Locations'!$A$1:$F$341,2)),"",VLOOKUP(F20,'Base Locations'!$A$1:$F$341,2))</f>
         <v/>
       </c>
       <c r="H20" s="41"/>
       <c r="I20" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(H20,'Base Locations'!A19:F359,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(H20,'Base Locations'!A19:F359,2)),"",VLOOKUP(H20,'Base Locations'!A19:F359,2))</f>
         <v/>
       </c>
       <c r="J20" s="41"/>
@@ -9001,42 +8992,42 @@
       <c r="L20" s="41"/>
       <c r="M20" s="41"/>
       <c r="N20" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(M20,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(M20,Services!$A$1:$B$45,2)),"",VLOOKUP(M20,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="O20" s="41"/>
       <c r="P20" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(O20,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(O20,Services!$A$1:$B$45,2)),"",VLOOKUP(O20,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="Q20" s="41"/>
       <c r="R20" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(Q20,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(Q20,Services!$A$1:$B$45,2)),"",VLOOKUP(Q20,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="S20" s="41"/>
       <c r="T20" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(S20,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(S20,Services!$A$1:$B$45,2)),"",VLOOKUP(S20,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="U20" s="41"/>
       <c r="V20" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(U20,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(U20,Services!$A$1:$B$45,2)),"",VLOOKUP(U20,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="W20" s="41"/>
       <c r="X20" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(W20,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(W20,Services!$A$1:$B$45,2)),"",VLOOKUP(W20,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="Y20" s="41"/>
       <c r="Z20" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(Y20,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(Y20,Services!$A$1:$B$45,2)),"",VLOOKUP(Y20,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="AA20" s="41"/>
       <c r="AB20" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(AA20,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(AA20,Services!$A$1:$B$45,2)),"",VLOOKUP(AA20,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="AC20" s="41"/>
@@ -9048,17 +9039,17 @@
       <c r="C21" s="42"/>
       <c r="D21" s="41"/>
       <c r="E21" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(D21,Region!$A$2:$B$11,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(D21,Region!$A$2:$B$11,2)),"",VLOOKUP(D21,Region!$A$2:$B$11,2))</f>
         <v/>
       </c>
       <c r="F21" s="41"/>
       <c r="G21" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F21,'Base Locations'!$A$1:$F$341,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(F21,'Base Locations'!$A$1:$F$341,2)),"",VLOOKUP(F21,'Base Locations'!$A$1:$F$341,2))</f>
         <v/>
       </c>
       <c r="H21" s="41"/>
       <c r="I21" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(H21,'Base Locations'!A20:F360,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(H21,'Base Locations'!A20:F360,2)),"",VLOOKUP(H21,'Base Locations'!A20:F360,2))</f>
         <v/>
       </c>
       <c r="J21" s="41"/>
@@ -9066,42 +9057,42 @@
       <c r="L21" s="41"/>
       <c r="M21" s="41"/>
       <c r="N21" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(M21,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(M21,Services!$A$1:$B$45,2)),"",VLOOKUP(M21,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="O21" s="41"/>
       <c r="P21" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(O21,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(O21,Services!$A$1:$B$45,2)),"",VLOOKUP(O21,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="Q21" s="41"/>
       <c r="R21" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(Q21,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(Q21,Services!$A$1:$B$45,2)),"",VLOOKUP(Q21,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="S21" s="41"/>
       <c r="T21" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(S21,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(S21,Services!$A$1:$B$45,2)),"",VLOOKUP(S21,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="U21" s="41"/>
       <c r="V21" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(U21,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(U21,Services!$A$1:$B$45,2)),"",VLOOKUP(U21,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="W21" s="41"/>
       <c r="X21" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(W21,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(W21,Services!$A$1:$B$45,2)),"",VLOOKUP(W21,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="Y21" s="41"/>
       <c r="Z21" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(Y21,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(Y21,Services!$A$1:$B$45,2)),"",VLOOKUP(Y21,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="AA21" s="41"/>
       <c r="AB21" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(AA21,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(AA21,Services!$A$1:$B$45,2)),"",VLOOKUP(AA21,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="AC21" s="41"/>
@@ -9113,17 +9104,17 @@
       <c r="C22" s="42"/>
       <c r="D22" s="41"/>
       <c r="E22" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(D22,Region!$A$2:$B$11,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(D22,Region!$A$2:$B$11,2)),"",VLOOKUP(D22,Region!$A$2:$B$11,2))</f>
         <v/>
       </c>
       <c r="F22" s="41"/>
       <c r="G22" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F22,'Base Locations'!$A$1:$F$341,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(F22,'Base Locations'!$A$1:$F$341,2)),"",VLOOKUP(F22,'Base Locations'!$A$1:$F$341,2))</f>
         <v/>
       </c>
       <c r="H22" s="41"/>
       <c r="I22" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(H22,'Base Locations'!A21:F361,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(H22,'Base Locations'!A21:F361,2)),"",VLOOKUP(H22,'Base Locations'!A21:F361,2))</f>
         <v/>
       </c>
       <c r="J22" s="41"/>
@@ -9131,42 +9122,42 @@
       <c r="L22" s="41"/>
       <c r="M22" s="41"/>
       <c r="N22" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(M22,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(M22,Services!$A$1:$B$45,2)),"",VLOOKUP(M22,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="O22" s="41"/>
       <c r="P22" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(O22,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(O22,Services!$A$1:$B$45,2)),"",VLOOKUP(O22,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="Q22" s="41"/>
       <c r="R22" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(Q22,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(Q22,Services!$A$1:$B$45,2)),"",VLOOKUP(Q22,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="S22" s="41"/>
       <c r="T22" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(S22,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(S22,Services!$A$1:$B$45,2)),"",VLOOKUP(S22,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="U22" s="41"/>
       <c r="V22" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(U22,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(U22,Services!$A$1:$B$45,2)),"",VLOOKUP(U22,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="W22" s="41"/>
       <c r="X22" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(W22,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(W22,Services!$A$1:$B$45,2)),"",VLOOKUP(W22,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="Y22" s="41"/>
       <c r="Z22" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(Y22,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(Y22,Services!$A$1:$B$45,2)),"",VLOOKUP(Y22,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="AA22" s="41"/>
       <c r="AB22" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(AA22,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(AA22,Services!$A$1:$B$45,2)),"",VLOOKUP(AA22,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="AC22" s="41"/>
@@ -9178,17 +9169,17 @@
       <c r="C23" s="42"/>
       <c r="D23" s="41"/>
       <c r="E23" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(D23,Region!$A$2:$B$11,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(D23,Region!$A$2:$B$11,2)),"",VLOOKUP(D23,Region!$A$2:$B$11,2))</f>
         <v/>
       </c>
       <c r="F23" s="41"/>
       <c r="G23" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F23,'Base Locations'!$A$1:$F$341,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(F23,'Base Locations'!$A$1:$F$341,2)),"",VLOOKUP(F23,'Base Locations'!$A$1:$F$341,2))</f>
         <v/>
       </c>
       <c r="H23" s="41"/>
       <c r="I23" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(H23,'Base Locations'!A22:F362,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(H23,'Base Locations'!A22:F362,2)),"",VLOOKUP(H23,'Base Locations'!A22:F362,2))</f>
         <v/>
       </c>
       <c r="J23" s="41"/>
@@ -9196,42 +9187,42 @@
       <c r="L23" s="41"/>
       <c r="M23" s="41"/>
       <c r="N23" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(M23,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(M23,Services!$A$1:$B$45,2)),"",VLOOKUP(M23,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="O23" s="41"/>
       <c r="P23" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(O23,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(O23,Services!$A$1:$B$45,2)),"",VLOOKUP(O23,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="Q23" s="41"/>
       <c r="R23" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(Q23,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(Q23,Services!$A$1:$B$45,2)),"",VLOOKUP(Q23,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="S23" s="41"/>
       <c r="T23" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(S23,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(S23,Services!$A$1:$B$45,2)),"",VLOOKUP(S23,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="U23" s="41"/>
       <c r="V23" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(U23,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(U23,Services!$A$1:$B$45,2)),"",VLOOKUP(U23,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="W23" s="41"/>
       <c r="X23" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(W23,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(W23,Services!$A$1:$B$45,2)),"",VLOOKUP(W23,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="Y23" s="41"/>
       <c r="Z23" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(Y23,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(Y23,Services!$A$1:$B$45,2)),"",VLOOKUP(Y23,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="AA23" s="41"/>
       <c r="AB23" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(AA23,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(AA23,Services!$A$1:$B$45,2)),"",VLOOKUP(AA23,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="AC23" s="41"/>
@@ -9243,17 +9234,17 @@
       <c r="C24" s="42"/>
       <c r="D24" s="41"/>
       <c r="E24" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(D24,Region!$A$2:$B$11,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(D24,Region!$A$2:$B$11,2)),"",VLOOKUP(D24,Region!$A$2:$B$11,2))</f>
         <v/>
       </c>
       <c r="F24" s="41"/>
       <c r="G24" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F24,'Base Locations'!$A$1:$F$341,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(F24,'Base Locations'!$A$1:$F$341,2)),"",VLOOKUP(F24,'Base Locations'!$A$1:$F$341,2))</f>
         <v/>
       </c>
       <c r="H24" s="41"/>
       <c r="I24" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(H24,'Base Locations'!A23:F363,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(H24,'Base Locations'!A23:F363,2)),"",VLOOKUP(H24,'Base Locations'!A23:F363,2))</f>
         <v/>
       </c>
       <c r="J24" s="41"/>
@@ -9261,42 +9252,42 @@
       <c r="L24" s="41"/>
       <c r="M24" s="41"/>
       <c r="N24" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(M24,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(M24,Services!$A$1:$B$45,2)),"",VLOOKUP(M24,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="O24" s="41"/>
       <c r="P24" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(O24,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(O24,Services!$A$1:$B$45,2)),"",VLOOKUP(O24,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="Q24" s="41"/>
       <c r="R24" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(Q24,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(Q24,Services!$A$1:$B$45,2)),"",VLOOKUP(Q24,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="S24" s="41"/>
       <c r="T24" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(S24,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(S24,Services!$A$1:$B$45,2)),"",VLOOKUP(S24,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="U24" s="41"/>
       <c r="V24" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(U24,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(U24,Services!$A$1:$B$45,2)),"",VLOOKUP(U24,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="W24" s="41"/>
       <c r="X24" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(W24,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(W24,Services!$A$1:$B$45,2)),"",VLOOKUP(W24,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="Y24" s="41"/>
       <c r="Z24" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(Y24,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(Y24,Services!$A$1:$B$45,2)),"",VLOOKUP(Y24,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="AA24" s="41"/>
       <c r="AB24" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(AA24,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(AA24,Services!$A$1:$B$45,2)),"",VLOOKUP(AA24,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="AC24" s="41"/>
@@ -9308,17 +9299,17 @@
       <c r="C25" s="42"/>
       <c r="D25" s="41"/>
       <c r="E25" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(D25,Region!$A$2:$B$11,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(D25,Region!$A$2:$B$11,2)),"",VLOOKUP(D25,Region!$A$2:$B$11,2))</f>
         <v/>
       </c>
       <c r="F25" s="41"/>
       <c r="G25" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F25,'Base Locations'!$A$1:$F$341,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(F25,'Base Locations'!$A$1:$F$341,2)),"",VLOOKUP(F25,'Base Locations'!$A$1:$F$341,2))</f>
         <v/>
       </c>
       <c r="H25" s="41"/>
       <c r="I25" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(H25,'Base Locations'!A24:F364,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(H25,'Base Locations'!A24:F364,2)),"",VLOOKUP(H25,'Base Locations'!A24:F364,2))</f>
         <v/>
       </c>
       <c r="J25" s="41"/>
@@ -9326,42 +9317,42 @@
       <c r="L25" s="41"/>
       <c r="M25" s="41"/>
       <c r="N25" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(M25,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(M25,Services!$A$1:$B$45,2)),"",VLOOKUP(M25,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="O25" s="41"/>
       <c r="P25" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(O25,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(O25,Services!$A$1:$B$45,2)),"",VLOOKUP(O25,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="Q25" s="41"/>
       <c r="R25" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(Q25,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(Q25,Services!$A$1:$B$45,2)),"",VLOOKUP(Q25,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="S25" s="41"/>
       <c r="T25" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(S25,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(S25,Services!$A$1:$B$45,2)),"",VLOOKUP(S25,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="U25" s="41"/>
       <c r="V25" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(U25,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(U25,Services!$A$1:$B$45,2)),"",VLOOKUP(U25,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="W25" s="41"/>
       <c r="X25" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(W25,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(W25,Services!$A$1:$B$45,2)),"",VLOOKUP(W25,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="Y25" s="41"/>
       <c r="Z25" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(Y25,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(Y25,Services!$A$1:$B$45,2)),"",VLOOKUP(Y25,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="AA25" s="41"/>
       <c r="AB25" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(AA25,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(AA25,Services!$A$1:$B$45,2)),"",VLOOKUP(AA25,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="AC25" s="41"/>
@@ -9373,17 +9364,17 @@
       <c r="C26" s="42"/>
       <c r="D26" s="41"/>
       <c r="E26" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(D26,Region!$A$2:$B$11,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(D26,Region!$A$2:$B$11,2)),"",VLOOKUP(D26,Region!$A$2:$B$11,2))</f>
         <v/>
       </c>
       <c r="F26" s="41"/>
       <c r="G26" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F26,'Base Locations'!$A$1:$F$341,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(F26,'Base Locations'!$A$1:$F$341,2)),"",VLOOKUP(F26,'Base Locations'!$A$1:$F$341,2))</f>
         <v/>
       </c>
       <c r="H26" s="41"/>
       <c r="I26" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(H26,'Base Locations'!A25:F365,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(H26,'Base Locations'!A25:F365,2)),"",VLOOKUP(H26,'Base Locations'!A25:F365,2))</f>
         <v/>
       </c>
       <c r="J26" s="41"/>
@@ -9391,42 +9382,42 @@
       <c r="L26" s="41"/>
       <c r="M26" s="41"/>
       <c r="N26" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(M26,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(M26,Services!$A$1:$B$45,2)),"",VLOOKUP(M26,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="O26" s="41"/>
       <c r="P26" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(O26,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(O26,Services!$A$1:$B$45,2)),"",VLOOKUP(O26,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="Q26" s="41"/>
       <c r="R26" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(Q26,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(Q26,Services!$A$1:$B$45,2)),"",VLOOKUP(Q26,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="S26" s="41"/>
       <c r="T26" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(S26,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(S26,Services!$A$1:$B$45,2)),"",VLOOKUP(S26,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="U26" s="41"/>
       <c r="V26" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(U26,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(U26,Services!$A$1:$B$45,2)),"",VLOOKUP(U26,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="W26" s="41"/>
       <c r="X26" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(W26,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(W26,Services!$A$1:$B$45,2)),"",VLOOKUP(W26,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="Y26" s="41"/>
       <c r="Z26" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(Y26,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(Y26,Services!$A$1:$B$45,2)),"",VLOOKUP(Y26,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="AA26" s="41"/>
       <c r="AB26" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(AA26,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(AA26,Services!$A$1:$B$45,2)),"",VLOOKUP(AA26,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="AC26" s="41"/>
@@ -9438,17 +9429,17 @@
       <c r="C27" s="42"/>
       <c r="D27" s="41"/>
       <c r="E27" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(D27,Region!$A$2:$B$11,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(D27,Region!$A$2:$B$11,2)),"",VLOOKUP(D27,Region!$A$2:$B$11,2))</f>
         <v/>
       </c>
       <c r="F27" s="41"/>
       <c r="G27" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F27,'Base Locations'!$A$1:$F$341,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(F27,'Base Locations'!$A$1:$F$341,2)),"",VLOOKUP(F27,'Base Locations'!$A$1:$F$341,2))</f>
         <v/>
       </c>
       <c r="H27" s="41"/>
       <c r="I27" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(H27,'Base Locations'!A26:F366,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(H27,'Base Locations'!A26:F366,2)),"",VLOOKUP(H27,'Base Locations'!A26:F366,2))</f>
         <v/>
       </c>
       <c r="J27" s="41"/>
@@ -9456,42 +9447,42 @@
       <c r="L27" s="41"/>
       <c r="M27" s="41"/>
       <c r="N27" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(M27,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(M27,Services!$A$1:$B$45,2)),"",VLOOKUP(M27,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="O27" s="41"/>
       <c r="P27" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(O27,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(O27,Services!$A$1:$B$45,2)),"",VLOOKUP(O27,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="Q27" s="41"/>
       <c r="R27" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(Q27,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(Q27,Services!$A$1:$B$45,2)),"",VLOOKUP(Q27,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="S27" s="41"/>
       <c r="T27" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(S27,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(S27,Services!$A$1:$B$45,2)),"",VLOOKUP(S27,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="U27" s="41"/>
       <c r="V27" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(U27,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(U27,Services!$A$1:$B$45,2)),"",VLOOKUP(U27,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="W27" s="41"/>
       <c r="X27" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(W27,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(W27,Services!$A$1:$B$45,2)),"",VLOOKUP(W27,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="Y27" s="41"/>
       <c r="Z27" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(Y27,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(Y27,Services!$A$1:$B$45,2)),"",VLOOKUP(Y27,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="AA27" s="41"/>
       <c r="AB27" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(AA27,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(AA27,Services!$A$1:$B$45,2)),"",VLOOKUP(AA27,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="AC27" s="41"/>
@@ -9503,17 +9494,17 @@
       <c r="C28" s="42"/>
       <c r="D28" s="41"/>
       <c r="E28" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(D28,Region!$A$2:$B$11,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(D28,Region!$A$2:$B$11,2)),"",VLOOKUP(D28,Region!$A$2:$B$11,2))</f>
         <v/>
       </c>
       <c r="F28" s="41"/>
       <c r="G28" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F28,'Base Locations'!$A$1:$F$341,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(F28,'Base Locations'!$A$1:$F$341,2)),"",VLOOKUP(F28,'Base Locations'!$A$1:$F$341,2))</f>
         <v/>
       </c>
       <c r="H28" s="41"/>
       <c r="I28" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(H28,'Base Locations'!A27:F367,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(H28,'Base Locations'!A27:F367,2)),"",VLOOKUP(H28,'Base Locations'!A27:F367,2))</f>
         <v/>
       </c>
       <c r="J28" s="41"/>
@@ -9521,42 +9512,42 @@
       <c r="L28" s="41"/>
       <c r="M28" s="41"/>
       <c r="N28" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(M28,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(M28,Services!$A$1:$B$45,2)),"",VLOOKUP(M28,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="O28" s="41"/>
       <c r="P28" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(O28,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(O28,Services!$A$1:$B$45,2)),"",VLOOKUP(O28,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="Q28" s="41"/>
       <c r="R28" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(Q28,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(Q28,Services!$A$1:$B$45,2)),"",VLOOKUP(Q28,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="S28" s="41"/>
       <c r="T28" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(S28,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(S28,Services!$A$1:$B$45,2)),"",VLOOKUP(S28,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="U28" s="41"/>
       <c r="V28" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(U28,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(U28,Services!$A$1:$B$45,2)),"",VLOOKUP(U28,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="W28" s="41"/>
       <c r="X28" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(W28,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(W28,Services!$A$1:$B$45,2)),"",VLOOKUP(W28,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="Y28" s="41"/>
       <c r="Z28" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(Y28,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(Y28,Services!$A$1:$B$45,2)),"",VLOOKUP(Y28,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="AA28" s="41"/>
       <c r="AB28" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(AA28,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(AA28,Services!$A$1:$B$45,2)),"",VLOOKUP(AA28,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="AC28" s="41"/>
@@ -9568,17 +9559,17 @@
       <c r="C29" s="42"/>
       <c r="D29" s="41"/>
       <c r="E29" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(D29,Region!$A$2:$B$11,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(D29,Region!$A$2:$B$11,2)),"",VLOOKUP(D29,Region!$A$2:$B$11,2))</f>
         <v/>
       </c>
       <c r="F29" s="41"/>
       <c r="G29" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F29,'Base Locations'!$A$1:$F$341,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(F29,'Base Locations'!$A$1:$F$341,2)),"",VLOOKUP(F29,'Base Locations'!$A$1:$F$341,2))</f>
         <v/>
       </c>
       <c r="H29" s="41"/>
       <c r="I29" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(H29,'Base Locations'!A28:F368,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(H29,'Base Locations'!A28:F368,2)),"",VLOOKUP(H29,'Base Locations'!A28:F368,2))</f>
         <v/>
       </c>
       <c r="J29" s="41"/>
@@ -9586,42 +9577,42 @@
       <c r="L29" s="41"/>
       <c r="M29" s="41"/>
       <c r="N29" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(M29,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(M29,Services!$A$1:$B$45,2)),"",VLOOKUP(M29,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="O29" s="41"/>
       <c r="P29" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(O29,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(O29,Services!$A$1:$B$45,2)),"",VLOOKUP(O29,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="Q29" s="41"/>
       <c r="R29" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(Q29,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(Q29,Services!$A$1:$B$45,2)),"",VLOOKUP(Q29,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="S29" s="41"/>
       <c r="T29" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(S29,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(S29,Services!$A$1:$B$45,2)),"",VLOOKUP(S29,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="U29" s="41"/>
       <c r="V29" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(U29,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(U29,Services!$A$1:$B$45,2)),"",VLOOKUP(U29,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="W29" s="41"/>
       <c r="X29" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(W29,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(W29,Services!$A$1:$B$45,2)),"",VLOOKUP(W29,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="Y29" s="41"/>
       <c r="Z29" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(Y29,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(Y29,Services!$A$1:$B$45,2)),"",VLOOKUP(Y29,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="AA29" s="41"/>
       <c r="AB29" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(AA29,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(AA29,Services!$A$1:$B$45,2)),"",VLOOKUP(AA29,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="AC29" s="41"/>
@@ -9633,17 +9624,17 @@
       <c r="C30" s="42"/>
       <c r="D30" s="41"/>
       <c r="E30" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(D30,Region!$A$2:$B$11,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(D30,Region!$A$2:$B$11,2)),"",VLOOKUP(D30,Region!$A$2:$B$11,2))</f>
         <v/>
       </c>
       <c r="F30" s="41"/>
       <c r="G30" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F30,'Base Locations'!$A$1:$F$341,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(F30,'Base Locations'!$A$1:$F$341,2)),"",VLOOKUP(F30,'Base Locations'!$A$1:$F$341,2))</f>
         <v/>
       </c>
       <c r="H30" s="41"/>
       <c r="I30" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(H30,'Base Locations'!A29:F369,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(H30,'Base Locations'!A29:F369,2)),"",VLOOKUP(H30,'Base Locations'!A29:F369,2))</f>
         <v/>
       </c>
       <c r="J30" s="41"/>
@@ -9651,42 +9642,42 @@
       <c r="L30" s="41"/>
       <c r="M30" s="41"/>
       <c r="N30" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(M30,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(M30,Services!$A$1:$B$45,2)),"",VLOOKUP(M30,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="O30" s="41"/>
       <c r="P30" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(O30,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(O30,Services!$A$1:$B$45,2)),"",VLOOKUP(O30,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="Q30" s="41"/>
       <c r="R30" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(Q30,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(Q30,Services!$A$1:$B$45,2)),"",VLOOKUP(Q30,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="S30" s="41"/>
       <c r="T30" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(S30,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(S30,Services!$A$1:$B$45,2)),"",VLOOKUP(S30,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="U30" s="41"/>
       <c r="V30" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(U30,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(U30,Services!$A$1:$B$45,2)),"",VLOOKUP(U30,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="W30" s="41"/>
       <c r="X30" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(W30,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(W30,Services!$A$1:$B$45,2)),"",VLOOKUP(W30,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="Y30" s="41"/>
       <c r="Z30" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(Y30,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(Y30,Services!$A$1:$B$45,2)),"",VLOOKUP(Y30,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="AA30" s="41"/>
       <c r="AB30" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(AA30,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(AA30,Services!$A$1:$B$45,2)),"",VLOOKUP(AA30,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="AC30" s="41"/>
@@ -9698,17 +9689,17 @@
       <c r="C31" s="42"/>
       <c r="D31" s="41"/>
       <c r="E31" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(D31,Region!$A$2:$B$11,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(D31,Region!$A$2:$B$11,2)),"",VLOOKUP(D31,Region!$A$2:$B$11,2))</f>
         <v/>
       </c>
       <c r="F31" s="41"/>
       <c r="G31" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F31,'Base Locations'!$A$1:$F$341,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(F31,'Base Locations'!$A$1:$F$341,2)),"",VLOOKUP(F31,'Base Locations'!$A$1:$F$341,2))</f>
         <v/>
       </c>
       <c r="H31" s="41"/>
       <c r="I31" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(H31,'Base Locations'!A30:F370,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(H31,'Base Locations'!A30:F370,2)),"",VLOOKUP(H31,'Base Locations'!A30:F370,2))</f>
         <v/>
       </c>
       <c r="J31" s="41"/>
@@ -9716,42 +9707,42 @@
       <c r="L31" s="41"/>
       <c r="M31" s="41"/>
       <c r="N31" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(M31,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(M31,Services!$A$1:$B$45,2)),"",VLOOKUP(M31,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="O31" s="41"/>
       <c r="P31" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(O31,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(O31,Services!$A$1:$B$45,2)),"",VLOOKUP(O31,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="Q31" s="41"/>
       <c r="R31" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(Q31,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(Q31,Services!$A$1:$B$45,2)),"",VLOOKUP(Q31,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="S31" s="41"/>
       <c r="T31" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(S31,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(S31,Services!$A$1:$B$45,2)),"",VLOOKUP(S31,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="U31" s="41"/>
       <c r="V31" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(U31,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(U31,Services!$A$1:$B$45,2)),"",VLOOKUP(U31,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="W31" s="41"/>
       <c r="X31" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(W31,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(W31,Services!$A$1:$B$45,2)),"",VLOOKUP(W31,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="Y31" s="41"/>
       <c r="Z31" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(Y31,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(Y31,Services!$A$1:$B$45,2)),"",VLOOKUP(Y31,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="AA31" s="41"/>
       <c r="AB31" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(AA31,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(AA31,Services!$A$1:$B$45,2)),"",VLOOKUP(AA31,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="AC31" s="41"/>
@@ -9763,17 +9754,17 @@
       <c r="C32" s="42"/>
       <c r="D32" s="41"/>
       <c r="E32" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(D32,Region!$A$2:$B$11,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(D32,Region!$A$2:$B$11,2)),"",VLOOKUP(D32,Region!$A$2:$B$11,2))</f>
         <v/>
       </c>
       <c r="F32" s="41"/>
       <c r="G32" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F32,'Base Locations'!$A$1:$F$341,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(F32,'Base Locations'!$A$1:$F$341,2)),"",VLOOKUP(F32,'Base Locations'!$A$1:$F$341,2))</f>
         <v/>
       </c>
       <c r="H32" s="41"/>
       <c r="I32" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(H32,'Base Locations'!A31:F371,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(H32,'Base Locations'!A31:F371,2)),"",VLOOKUP(H32,'Base Locations'!A31:F371,2))</f>
         <v/>
       </c>
       <c r="J32" s="41"/>
@@ -9781,42 +9772,42 @@
       <c r="L32" s="41"/>
       <c r="M32" s="41"/>
       <c r="N32" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(M32,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(M32,Services!$A$1:$B$45,2)),"",VLOOKUP(M32,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="O32" s="41"/>
       <c r="P32" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(O32,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(O32,Services!$A$1:$B$45,2)),"",VLOOKUP(O32,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="Q32" s="41"/>
       <c r="R32" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(Q32,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(Q32,Services!$A$1:$B$45,2)),"",VLOOKUP(Q32,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="S32" s="41"/>
       <c r="T32" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(S32,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(S32,Services!$A$1:$B$45,2)),"",VLOOKUP(S32,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="U32" s="41"/>
       <c r="V32" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(U32,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(U32,Services!$A$1:$B$45,2)),"",VLOOKUP(U32,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="W32" s="41"/>
       <c r="X32" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(W32,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(W32,Services!$A$1:$B$45,2)),"",VLOOKUP(W32,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="Y32" s="41"/>
       <c r="Z32" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(Y32,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(Y32,Services!$A$1:$B$45,2)),"",VLOOKUP(Y32,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="AA32" s="41"/>
       <c r="AB32" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(AA32,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(AA32,Services!$A$1:$B$45,2)),"",VLOOKUP(AA32,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="AC32" s="41"/>
@@ -9828,17 +9819,17 @@
       <c r="C33" s="42"/>
       <c r="D33" s="41"/>
       <c r="E33" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(D33,Region!$A$2:$B$11,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(D33,Region!$A$2:$B$11,2)),"",VLOOKUP(D33,Region!$A$2:$B$11,2))</f>
         <v/>
       </c>
       <c r="F33" s="41"/>
       <c r="G33" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F33,'Base Locations'!$A$1:$F$341,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(F33,'Base Locations'!$A$1:$F$341,2)),"",VLOOKUP(F33,'Base Locations'!$A$1:$F$341,2))</f>
         <v/>
       </c>
       <c r="H33" s="41"/>
       <c r="I33" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(H33,'Base Locations'!A32:F372,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(H33,'Base Locations'!A32:F372,2)),"",VLOOKUP(H33,'Base Locations'!A32:F372,2))</f>
         <v/>
       </c>
       <c r="J33" s="41"/>
@@ -9846,42 +9837,42 @@
       <c r="L33" s="41"/>
       <c r="M33" s="41"/>
       <c r="N33" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(M33,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(M33,Services!$A$1:$B$45,2)),"",VLOOKUP(M33,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="O33" s="41"/>
       <c r="P33" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(O33,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(O33,Services!$A$1:$B$45,2)),"",VLOOKUP(O33,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="Q33" s="41"/>
       <c r="R33" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(Q33,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(Q33,Services!$A$1:$B$45,2)),"",VLOOKUP(Q33,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="S33" s="41"/>
       <c r="T33" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(S33,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(S33,Services!$A$1:$B$45,2)),"",VLOOKUP(S33,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="U33" s="41"/>
       <c r="V33" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(U33,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(U33,Services!$A$1:$B$45,2)),"",VLOOKUP(U33,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="W33" s="41"/>
       <c r="X33" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(W33,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(W33,Services!$A$1:$B$45,2)),"",VLOOKUP(W33,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="Y33" s="41"/>
       <c r="Z33" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(Y33,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(Y33,Services!$A$1:$B$45,2)),"",VLOOKUP(Y33,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="AA33" s="41"/>
       <c r="AB33" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(AA33,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(AA33,Services!$A$1:$B$45,2)),"",VLOOKUP(AA33,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="AC33" s="41"/>
@@ -9893,17 +9884,17 @@
       <c r="C34" s="42"/>
       <c r="D34" s="41"/>
       <c r="E34" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(D34,Region!$A$2:$B$11,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(D34,Region!$A$2:$B$11,2)),"",VLOOKUP(D34,Region!$A$2:$B$11,2))</f>
         <v/>
       </c>
       <c r="F34" s="41"/>
       <c r="G34" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F34,'Base Locations'!$A$1:$F$341,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(F34,'Base Locations'!$A$1:$F$341,2)),"",VLOOKUP(F34,'Base Locations'!$A$1:$F$341,2))</f>
         <v/>
       </c>
       <c r="H34" s="41"/>
       <c r="I34" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(H34,'Base Locations'!A33:F373,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(H34,'Base Locations'!A33:F373,2)),"",VLOOKUP(H34,'Base Locations'!A33:F373,2))</f>
         <v/>
       </c>
       <c r="J34" s="41"/>
@@ -9911,42 +9902,42 @@
       <c r="L34" s="41"/>
       <c r="M34" s="41"/>
       <c r="N34" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(M34,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(M34,Services!$A$1:$B$45,2)),"",VLOOKUP(M34,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="O34" s="41"/>
       <c r="P34" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(O34,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(O34,Services!$A$1:$B$45,2)),"",VLOOKUP(O34,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="Q34" s="41"/>
       <c r="R34" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(Q34,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(Q34,Services!$A$1:$B$45,2)),"",VLOOKUP(Q34,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="S34" s="41"/>
       <c r="T34" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(S34,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(S34,Services!$A$1:$B$45,2)),"",VLOOKUP(S34,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="U34" s="41"/>
       <c r="V34" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(U34,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(U34,Services!$A$1:$B$45,2)),"",VLOOKUP(U34,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="W34" s="41"/>
       <c r="X34" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(W34,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(W34,Services!$A$1:$B$45,2)),"",VLOOKUP(W34,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="Y34" s="41"/>
       <c r="Z34" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(Y34,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(Y34,Services!$A$1:$B$45,2)),"",VLOOKUP(Y34,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="AA34" s="41"/>
       <c r="AB34" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(AA34,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(AA34,Services!$A$1:$B$45,2)),"",VLOOKUP(AA34,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="AC34" s="41"/>
@@ -9958,17 +9949,17 @@
       <c r="C35" s="42"/>
       <c r="D35" s="41"/>
       <c r="E35" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(D35,Region!$A$2:$B$11,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(D35,Region!$A$2:$B$11,2)),"",VLOOKUP(D35,Region!$A$2:$B$11,2))</f>
         <v/>
       </c>
       <c r="F35" s="41"/>
       <c r="G35" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F35,'Base Locations'!$A$1:$F$341,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(F35,'Base Locations'!$A$1:$F$341,2)),"",VLOOKUP(F35,'Base Locations'!$A$1:$F$341,2))</f>
         <v/>
       </c>
       <c r="H35" s="41"/>
       <c r="I35" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(H35,'Base Locations'!A34:F374,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(H35,'Base Locations'!A34:F374,2)),"",VLOOKUP(H35,'Base Locations'!A34:F374,2))</f>
         <v/>
       </c>
       <c r="J35" s="41"/>
@@ -9976,42 +9967,42 @@
       <c r="L35" s="41"/>
       <c r="M35" s="41"/>
       <c r="N35" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(M35,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(M35,Services!$A$1:$B$45,2)),"",VLOOKUP(M35,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="O35" s="41"/>
       <c r="P35" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(O35,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(O35,Services!$A$1:$B$45,2)),"",VLOOKUP(O35,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="Q35" s="41"/>
       <c r="R35" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(Q35,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(Q35,Services!$A$1:$B$45,2)),"",VLOOKUP(Q35,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="S35" s="41"/>
       <c r="T35" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(S35,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(S35,Services!$A$1:$B$45,2)),"",VLOOKUP(S35,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="U35" s="41"/>
       <c r="V35" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(U35,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(U35,Services!$A$1:$B$45,2)),"",VLOOKUP(U35,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="W35" s="41"/>
       <c r="X35" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(W35,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(W35,Services!$A$1:$B$45,2)),"",VLOOKUP(W35,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="Y35" s="41"/>
       <c r="Z35" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(Y35,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(Y35,Services!$A$1:$B$45,2)),"",VLOOKUP(Y35,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="AA35" s="41"/>
       <c r="AB35" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(AA35,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(AA35,Services!$A$1:$B$45,2)),"",VLOOKUP(AA35,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="AC35" s="41"/>
@@ -10023,17 +10014,17 @@
       <c r="C36" s="42"/>
       <c r="D36" s="41"/>
       <c r="E36" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(D36,Region!$A$2:$B$11,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(D36,Region!$A$2:$B$11,2)),"",VLOOKUP(D36,Region!$A$2:$B$11,2))</f>
         <v/>
       </c>
       <c r="F36" s="41"/>
       <c r="G36" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F36,'Base Locations'!$A$1:$F$341,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(F36,'Base Locations'!$A$1:$F$341,2)),"",VLOOKUP(F36,'Base Locations'!$A$1:$F$341,2))</f>
         <v/>
       </c>
       <c r="H36" s="41"/>
       <c r="I36" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(H36,'Base Locations'!A35:F375,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(H36,'Base Locations'!A35:F375,2)),"",VLOOKUP(H36,'Base Locations'!A35:F375,2))</f>
         <v/>
       </c>
       <c r="J36" s="41"/>
@@ -10041,42 +10032,42 @@
       <c r="L36" s="41"/>
       <c r="M36" s="41"/>
       <c r="N36" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(M36,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(M36,Services!$A$1:$B$45,2)),"",VLOOKUP(M36,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="O36" s="41"/>
       <c r="P36" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(O36,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(O36,Services!$A$1:$B$45,2)),"",VLOOKUP(O36,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="Q36" s="41"/>
       <c r="R36" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(Q36,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(Q36,Services!$A$1:$B$45,2)),"",VLOOKUP(Q36,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="S36" s="41"/>
       <c r="T36" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(S36,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(S36,Services!$A$1:$B$45,2)),"",VLOOKUP(S36,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="U36" s="41"/>
       <c r="V36" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(U36,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(U36,Services!$A$1:$B$45,2)),"",VLOOKUP(U36,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="W36" s="41"/>
       <c r="X36" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(W36,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(W36,Services!$A$1:$B$45,2)),"",VLOOKUP(W36,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="Y36" s="41"/>
       <c r="Z36" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(Y36,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(Y36,Services!$A$1:$B$45,2)),"",VLOOKUP(Y36,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="AA36" s="41"/>
       <c r="AB36" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(AA36,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(AA36,Services!$A$1:$B$45,2)),"",VLOOKUP(AA36,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="AC36" s="41"/>
@@ -10088,17 +10079,17 @@
       <c r="C37" s="42"/>
       <c r="D37" s="41"/>
       <c r="E37" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(D37,Region!$A$2:$B$11,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(D37,Region!$A$2:$B$11,2)),"",VLOOKUP(D37,Region!$A$2:$B$11,2))</f>
         <v/>
       </c>
       <c r="F37" s="41"/>
       <c r="G37" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F37,'Base Locations'!$A$1:$F$341,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(F37,'Base Locations'!$A$1:$F$341,2)),"",VLOOKUP(F37,'Base Locations'!$A$1:$F$341,2))</f>
         <v/>
       </c>
       <c r="H37" s="41"/>
       <c r="I37" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(H37,'Base Locations'!A36:F376,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(H37,'Base Locations'!A36:F376,2)),"",VLOOKUP(H37,'Base Locations'!A36:F376,2))</f>
         <v/>
       </c>
       <c r="J37" s="41"/>
@@ -10106,42 +10097,42 @@
       <c r="L37" s="41"/>
       <c r="M37" s="41"/>
       <c r="N37" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(M37,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(M37,Services!$A$1:$B$45,2)),"",VLOOKUP(M37,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="O37" s="41"/>
       <c r="P37" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(O37,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(O37,Services!$A$1:$B$45,2)),"",VLOOKUP(O37,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="Q37" s="41"/>
       <c r="R37" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(Q37,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(Q37,Services!$A$1:$B$45,2)),"",VLOOKUP(Q37,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="S37" s="41"/>
       <c r="T37" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(S37,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(S37,Services!$A$1:$B$45,2)),"",VLOOKUP(S37,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="U37" s="41"/>
       <c r="V37" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(U37,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(U37,Services!$A$1:$B$45,2)),"",VLOOKUP(U37,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="W37" s="41"/>
       <c r="X37" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(W37,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(W37,Services!$A$1:$B$45,2)),"",VLOOKUP(W37,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="Y37" s="41"/>
       <c r="Z37" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(Y37,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(Y37,Services!$A$1:$B$45,2)),"",VLOOKUP(Y37,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="AA37" s="41"/>
       <c r="AB37" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(AA37,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(AA37,Services!$A$1:$B$45,2)),"",VLOOKUP(AA37,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="AC37" s="41"/>
@@ -10153,17 +10144,17 @@
       <c r="C38" s="42"/>
       <c r="D38" s="41"/>
       <c r="E38" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(D38,Region!$A$2:$B$11,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(D38,Region!$A$2:$B$11,2)),"",VLOOKUP(D38,Region!$A$2:$B$11,2))</f>
         <v/>
       </c>
       <c r="F38" s="41"/>
       <c r="G38" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F38,'Base Locations'!$A$1:$F$341,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(F38,'Base Locations'!$A$1:$F$341,2)),"",VLOOKUP(F38,'Base Locations'!$A$1:$F$341,2))</f>
         <v/>
       </c>
       <c r="H38" s="41"/>
       <c r="I38" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(H38,'Base Locations'!A37:F377,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(H38,'Base Locations'!A37:F377,2)),"",VLOOKUP(H38,'Base Locations'!A37:F377,2))</f>
         <v/>
       </c>
       <c r="J38" s="41"/>
@@ -10171,42 +10162,42 @@
       <c r="L38" s="41"/>
       <c r="M38" s="41"/>
       <c r="N38" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(M38,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(M38,Services!$A$1:$B$45,2)),"",VLOOKUP(M38,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="O38" s="41"/>
       <c r="P38" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(O38,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(O38,Services!$A$1:$B$45,2)),"",VLOOKUP(O38,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="Q38" s="41"/>
       <c r="R38" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(Q38,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(Q38,Services!$A$1:$B$45,2)),"",VLOOKUP(Q38,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="S38" s="41"/>
       <c r="T38" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(S38,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(S38,Services!$A$1:$B$45,2)),"",VLOOKUP(S38,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="U38" s="41"/>
       <c r="V38" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(U38,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(U38,Services!$A$1:$B$45,2)),"",VLOOKUP(U38,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="W38" s="41"/>
       <c r="X38" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(W38,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(W38,Services!$A$1:$B$45,2)),"",VLOOKUP(W38,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="Y38" s="41"/>
       <c r="Z38" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(Y38,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(Y38,Services!$A$1:$B$45,2)),"",VLOOKUP(Y38,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="AA38" s="41"/>
       <c r="AB38" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(AA38,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(AA38,Services!$A$1:$B$45,2)),"",VLOOKUP(AA38,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="AC38" s="41"/>
@@ -10218,17 +10209,17 @@
       <c r="C39" s="42"/>
       <c r="D39" s="41"/>
       <c r="E39" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(D39,Region!$A$2:$B$11,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(D39,Region!$A$2:$B$11,2)),"",VLOOKUP(D39,Region!$A$2:$B$11,2))</f>
         <v/>
       </c>
       <c r="F39" s="41"/>
       <c r="G39" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F39,'Base Locations'!$A$1:$F$341,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(F39,'Base Locations'!$A$1:$F$341,2)),"",VLOOKUP(F39,'Base Locations'!$A$1:$F$341,2))</f>
         <v/>
       </c>
       <c r="H39" s="41"/>
       <c r="I39" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(H39,'Base Locations'!A38:F378,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(H39,'Base Locations'!A38:F378,2)),"",VLOOKUP(H39,'Base Locations'!A38:F378,2))</f>
         <v/>
       </c>
       <c r="J39" s="41"/>
@@ -10236,42 +10227,42 @@
       <c r="L39" s="41"/>
       <c r="M39" s="41"/>
       <c r="N39" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(M39,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(M39,Services!$A$1:$B$45,2)),"",VLOOKUP(M39,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="O39" s="41"/>
       <c r="P39" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(O39,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(O39,Services!$A$1:$B$45,2)),"",VLOOKUP(O39,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="Q39" s="41"/>
       <c r="R39" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(Q39,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(Q39,Services!$A$1:$B$45,2)),"",VLOOKUP(Q39,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="S39" s="41"/>
       <c r="T39" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(S39,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(S39,Services!$A$1:$B$45,2)),"",VLOOKUP(S39,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="U39" s="41"/>
       <c r="V39" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(U39,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(U39,Services!$A$1:$B$45,2)),"",VLOOKUP(U39,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="W39" s="41"/>
       <c r="X39" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(W39,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(W39,Services!$A$1:$B$45,2)),"",VLOOKUP(W39,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="Y39" s="41"/>
       <c r="Z39" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(Y39,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(Y39,Services!$A$1:$B$45,2)),"",VLOOKUP(Y39,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="AA39" s="41"/>
       <c r="AB39" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(AA39,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(AA39,Services!$A$1:$B$45,2)),"",VLOOKUP(AA39,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="AC39" s="41"/>
@@ -10283,17 +10274,17 @@
       <c r="C40" s="42"/>
       <c r="D40" s="41"/>
       <c r="E40" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(D40,Region!$A$2:$B$11,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(D40,Region!$A$2:$B$11,2)),"",VLOOKUP(D40,Region!$A$2:$B$11,2))</f>
         <v/>
       </c>
       <c r="F40" s="41"/>
       <c r="G40" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F40,'Base Locations'!$A$1:$F$341,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(F40,'Base Locations'!$A$1:$F$341,2)),"",VLOOKUP(F40,'Base Locations'!$A$1:$F$341,2))</f>
         <v/>
       </c>
       <c r="H40" s="41"/>
       <c r="I40" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(H40,'Base Locations'!A39:F379,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(H40,'Base Locations'!A39:F379,2)),"",VLOOKUP(H40,'Base Locations'!A39:F379,2))</f>
         <v/>
       </c>
       <c r="J40" s="41"/>
@@ -10301,42 +10292,42 @@
       <c r="L40" s="41"/>
       <c r="M40" s="41"/>
       <c r="N40" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(M40,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(M40,Services!$A$1:$B$45,2)),"",VLOOKUP(M40,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="O40" s="41"/>
       <c r="P40" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(O40,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(O40,Services!$A$1:$B$45,2)),"",VLOOKUP(O40,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="Q40" s="41"/>
       <c r="R40" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(Q40,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(Q40,Services!$A$1:$B$45,2)),"",VLOOKUP(Q40,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="S40" s="41"/>
       <c r="T40" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(S40,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(S40,Services!$A$1:$B$45,2)),"",VLOOKUP(S40,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="U40" s="41"/>
       <c r="V40" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(U40,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(U40,Services!$A$1:$B$45,2)),"",VLOOKUP(U40,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="W40" s="41"/>
       <c r="X40" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(W40,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(W40,Services!$A$1:$B$45,2)),"",VLOOKUP(W40,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="Y40" s="41"/>
       <c r="Z40" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(Y40,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(Y40,Services!$A$1:$B$45,2)),"",VLOOKUP(Y40,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="AA40" s="41"/>
       <c r="AB40" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(AA40,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(AA40,Services!$A$1:$B$45,2)),"",VLOOKUP(AA40,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="AC40" s="41"/>
@@ -10348,17 +10339,17 @@
       <c r="C41" s="42"/>
       <c r="D41" s="41"/>
       <c r="E41" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(D41,Region!$A$2:$B$11,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(D41,Region!$A$2:$B$11,2)),"",VLOOKUP(D41,Region!$A$2:$B$11,2))</f>
         <v/>
       </c>
       <c r="F41" s="41"/>
       <c r="G41" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F41,'Base Locations'!$A$1:$F$341,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(F41,'Base Locations'!$A$1:$F$341,2)),"",VLOOKUP(F41,'Base Locations'!$A$1:$F$341,2))</f>
         <v/>
       </c>
       <c r="H41" s="41"/>
       <c r="I41" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(H41,'Base Locations'!A40:F380,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(H41,'Base Locations'!A40:F380,2)),"",VLOOKUP(H41,'Base Locations'!A40:F380,2))</f>
         <v/>
       </c>
       <c r="J41" s="41"/>
@@ -10366,42 +10357,42 @@
       <c r="L41" s="41"/>
       <c r="M41" s="41"/>
       <c r="N41" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(M41,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(M41,Services!$A$1:$B$45,2)),"",VLOOKUP(M41,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="O41" s="41"/>
       <c r="P41" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(O41,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(O41,Services!$A$1:$B$45,2)),"",VLOOKUP(O41,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="Q41" s="41"/>
       <c r="R41" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(Q41,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(Q41,Services!$A$1:$B$45,2)),"",VLOOKUP(Q41,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="S41" s="41"/>
       <c r="T41" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(S41,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(S41,Services!$A$1:$B$45,2)),"",VLOOKUP(S41,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="U41" s="41"/>
       <c r="V41" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(U41,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(U41,Services!$A$1:$B$45,2)),"",VLOOKUP(U41,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="W41" s="41"/>
       <c r="X41" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(W41,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(W41,Services!$A$1:$B$45,2)),"",VLOOKUP(W41,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="Y41" s="41"/>
       <c r="Z41" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(Y41,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(Y41,Services!$A$1:$B$45,2)),"",VLOOKUP(Y41,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="AA41" s="41"/>
       <c r="AB41" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(AA41,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(AA41,Services!$A$1:$B$45,2)),"",VLOOKUP(AA41,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="AC41" s="41"/>
@@ -10413,17 +10404,17 @@
       <c r="C42" s="42"/>
       <c r="D42" s="41"/>
       <c r="E42" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(D42,Region!$A$2:$B$11,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(D42,Region!$A$2:$B$11,2)),"",VLOOKUP(D42,Region!$A$2:$B$11,2))</f>
         <v/>
       </c>
       <c r="F42" s="41"/>
       <c r="G42" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F42,'Base Locations'!$A$1:$F$341,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(F42,'Base Locations'!$A$1:$F$341,2)),"",VLOOKUP(F42,'Base Locations'!$A$1:$F$341,2))</f>
         <v/>
       </c>
       <c r="H42" s="41"/>
       <c r="I42" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(H42,'Base Locations'!A41:F381,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(H42,'Base Locations'!A41:F381,2)),"",VLOOKUP(H42,'Base Locations'!A41:F381,2))</f>
         <v/>
       </c>
       <c r="J42" s="41"/>
@@ -10431,42 +10422,42 @@
       <c r="L42" s="41"/>
       <c r="M42" s="41"/>
       <c r="N42" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(M42,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(M42,Services!$A$1:$B$45,2)),"",VLOOKUP(M42,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="O42" s="41"/>
       <c r="P42" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(O42,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(O42,Services!$A$1:$B$45,2)),"",VLOOKUP(O42,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="Q42" s="41"/>
       <c r="R42" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(Q42,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(Q42,Services!$A$1:$B$45,2)),"",VLOOKUP(Q42,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="S42" s="41"/>
       <c r="T42" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(S42,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(S42,Services!$A$1:$B$45,2)),"",VLOOKUP(S42,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="U42" s="41"/>
       <c r="V42" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(U42,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(U42,Services!$A$1:$B$45,2)),"",VLOOKUP(U42,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="W42" s="41"/>
       <c r="X42" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(W42,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(W42,Services!$A$1:$B$45,2)),"",VLOOKUP(W42,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="Y42" s="41"/>
       <c r="Z42" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(Y42,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(Y42,Services!$A$1:$B$45,2)),"",VLOOKUP(Y42,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="AA42" s="41"/>
       <c r="AB42" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(AA42,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(AA42,Services!$A$1:$B$45,2)),"",VLOOKUP(AA42,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="AC42" s="41"/>
@@ -10478,17 +10469,17 @@
       <c r="C43" s="42"/>
       <c r="D43" s="41"/>
       <c r="E43" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(D43,Region!$A$2:$B$11,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(D43,Region!$A$2:$B$11,2)),"",VLOOKUP(D43,Region!$A$2:$B$11,2))</f>
         <v/>
       </c>
       <c r="F43" s="41"/>
       <c r="G43" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F43,'Base Locations'!$A$1:$F$341,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(F43,'Base Locations'!$A$1:$F$341,2)),"",VLOOKUP(F43,'Base Locations'!$A$1:$F$341,2))</f>
         <v/>
       </c>
       <c r="H43" s="41"/>
       <c r="I43" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(H43,'Base Locations'!A42:F382,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(H43,'Base Locations'!A42:F382,2)),"",VLOOKUP(H43,'Base Locations'!A42:F382,2))</f>
         <v/>
       </c>
       <c r="J43" s="41"/>
@@ -10496,42 +10487,42 @@
       <c r="L43" s="41"/>
       <c r="M43" s="41"/>
       <c r="N43" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(M43,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(M43,Services!$A$1:$B$45,2)),"",VLOOKUP(M43,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="O43" s="41"/>
       <c r="P43" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(O43,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(O43,Services!$A$1:$B$45,2)),"",VLOOKUP(O43,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="Q43" s="41"/>
       <c r="R43" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(Q43,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(Q43,Services!$A$1:$B$45,2)),"",VLOOKUP(Q43,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="S43" s="41"/>
       <c r="T43" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(S43,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(S43,Services!$A$1:$B$45,2)),"",VLOOKUP(S43,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="U43" s="41"/>
       <c r="V43" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(U43,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(U43,Services!$A$1:$B$45,2)),"",VLOOKUP(U43,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="W43" s="41"/>
       <c r="X43" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(W43,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(W43,Services!$A$1:$B$45,2)),"",VLOOKUP(W43,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="Y43" s="41"/>
       <c r="Z43" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(Y43,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(Y43,Services!$A$1:$B$45,2)),"",VLOOKUP(Y43,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="AA43" s="41"/>
       <c r="AB43" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(AA43,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(AA43,Services!$A$1:$B$45,2)),"",VLOOKUP(AA43,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="AC43" s="41"/>
@@ -10543,17 +10534,17 @@
       <c r="C44" s="42"/>
       <c r="D44" s="41"/>
       <c r="E44" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(D44,Region!$A$2:$B$11,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(D44,Region!$A$2:$B$11,2)),"",VLOOKUP(D44,Region!$A$2:$B$11,2))</f>
         <v/>
       </c>
       <c r="F44" s="41"/>
       <c r="G44" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F44,'Base Locations'!$A$1:$F$341,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(F44,'Base Locations'!$A$1:$F$341,2)),"",VLOOKUP(F44,'Base Locations'!$A$1:$F$341,2))</f>
         <v/>
       </c>
       <c r="H44" s="41"/>
       <c r="I44" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(H44,'Base Locations'!A43:F383,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(H44,'Base Locations'!A43:F383,2)),"",VLOOKUP(H44,'Base Locations'!A43:F383,2))</f>
         <v/>
       </c>
       <c r="J44" s="41"/>
@@ -10561,42 +10552,42 @@
       <c r="L44" s="41"/>
       <c r="M44" s="41"/>
       <c r="N44" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(M44,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(M44,Services!$A$1:$B$45,2)),"",VLOOKUP(M44,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="O44" s="41"/>
       <c r="P44" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(O44,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(O44,Services!$A$1:$B$45,2)),"",VLOOKUP(O44,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="Q44" s="41"/>
       <c r="R44" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(Q44,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(Q44,Services!$A$1:$B$45,2)),"",VLOOKUP(Q44,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="S44" s="41"/>
       <c r="T44" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(S44,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(S44,Services!$A$1:$B$45,2)),"",VLOOKUP(S44,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="U44" s="41"/>
       <c r="V44" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(U44,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(U44,Services!$A$1:$B$45,2)),"",VLOOKUP(U44,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="W44" s="41"/>
       <c r="X44" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(W44,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(W44,Services!$A$1:$B$45,2)),"",VLOOKUP(W44,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="Y44" s="41"/>
       <c r="Z44" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(Y44,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(Y44,Services!$A$1:$B$45,2)),"",VLOOKUP(Y44,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="AA44" s="41"/>
       <c r="AB44" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(AA44,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(AA44,Services!$A$1:$B$45,2)),"",VLOOKUP(AA44,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="AC44" s="41"/>
@@ -10608,17 +10599,17 @@
       <c r="C45" s="42"/>
       <c r="D45" s="41"/>
       <c r="E45" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(D45,Region!$A$2:$B$11,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(D45,Region!$A$2:$B$11,2)),"",VLOOKUP(D45,Region!$A$2:$B$11,2))</f>
         <v/>
       </c>
       <c r="F45" s="41"/>
       <c r="G45" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F45,'Base Locations'!$A$1:$F$341,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(F45,'Base Locations'!$A$1:$F$341,2)),"",VLOOKUP(F45,'Base Locations'!$A$1:$F$341,2))</f>
         <v/>
       </c>
       <c r="H45" s="41"/>
       <c r="I45" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(H45,'Base Locations'!A44:F384,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(H45,'Base Locations'!A44:F384,2)),"",VLOOKUP(H45,'Base Locations'!A44:F384,2))</f>
         <v/>
       </c>
       <c r="J45" s="41"/>
@@ -10626,42 +10617,42 @@
       <c r="L45" s="41"/>
       <c r="M45" s="41"/>
       <c r="N45" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(M45,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(M45,Services!$A$1:$B$45,2)),"",VLOOKUP(M45,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="O45" s="41"/>
       <c r="P45" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(O45,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(O45,Services!$A$1:$B$45,2)),"",VLOOKUP(O45,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="Q45" s="41"/>
       <c r="R45" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(Q45,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(Q45,Services!$A$1:$B$45,2)),"",VLOOKUP(Q45,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="S45" s="41"/>
       <c r="T45" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(S45,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(S45,Services!$A$1:$B$45,2)),"",VLOOKUP(S45,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="U45" s="41"/>
       <c r="V45" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(U45,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(U45,Services!$A$1:$B$45,2)),"",VLOOKUP(U45,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="W45" s="41"/>
       <c r="X45" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(W45,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(W45,Services!$A$1:$B$45,2)),"",VLOOKUP(W45,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="Y45" s="41"/>
       <c r="Z45" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(Y45,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(Y45,Services!$A$1:$B$45,2)),"",VLOOKUP(Y45,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="AA45" s="41"/>
       <c r="AB45" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(AA45,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(AA45,Services!$A$1:$B$45,2)),"",VLOOKUP(AA45,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="AC45" s="41"/>
@@ -10673,17 +10664,17 @@
       <c r="C46" s="42"/>
       <c r="D46" s="41"/>
       <c r="E46" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(D46,Region!$A$2:$B$11,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(D46,Region!$A$2:$B$11,2)),"",VLOOKUP(D46,Region!$A$2:$B$11,2))</f>
         <v/>
       </c>
       <c r="F46" s="41"/>
       <c r="G46" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F46,'Base Locations'!$A$1:$F$341,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(F46,'Base Locations'!$A$1:$F$341,2)),"",VLOOKUP(F46,'Base Locations'!$A$1:$F$341,2))</f>
         <v/>
       </c>
       <c r="H46" s="41"/>
       <c r="I46" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(H46,'Base Locations'!A45:F385,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(H46,'Base Locations'!A45:F385,2)),"",VLOOKUP(H46,'Base Locations'!A45:F385,2))</f>
         <v/>
       </c>
       <c r="J46" s="41"/>
@@ -10691,42 +10682,42 @@
       <c r="L46" s="41"/>
       <c r="M46" s="41"/>
       <c r="N46" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(M46,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(M46,Services!$A$1:$B$45,2)),"",VLOOKUP(M46,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="O46" s="41"/>
       <c r="P46" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(O46,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(O46,Services!$A$1:$B$45,2)),"",VLOOKUP(O46,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="Q46" s="41"/>
       <c r="R46" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(Q46,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(Q46,Services!$A$1:$B$45,2)),"",VLOOKUP(Q46,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="S46" s="41"/>
       <c r="T46" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(S46,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(S46,Services!$A$1:$B$45,2)),"",VLOOKUP(S46,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="U46" s="41"/>
       <c r="V46" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(U46,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(U46,Services!$A$1:$B$45,2)),"",VLOOKUP(U46,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="W46" s="41"/>
       <c r="X46" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(W46,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(W46,Services!$A$1:$B$45,2)),"",VLOOKUP(W46,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="Y46" s="41"/>
       <c r="Z46" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(Y46,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(Y46,Services!$A$1:$B$45,2)),"",VLOOKUP(Y46,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="AA46" s="41"/>
       <c r="AB46" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(AA46,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(AA46,Services!$A$1:$B$45,2)),"",VLOOKUP(AA46,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="AC46" s="41"/>
@@ -10738,17 +10729,17 @@
       <c r="C47" s="42"/>
       <c r="D47" s="41"/>
       <c r="E47" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(D47,Region!$A$2:$B$11,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(D47,Region!$A$2:$B$11,2)),"",VLOOKUP(D47,Region!$A$2:$B$11,2))</f>
         <v/>
       </c>
       <c r="F47" s="41"/>
       <c r="G47" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F47,'Base Locations'!$A$1:$F$341,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(F47,'Base Locations'!$A$1:$F$341,2)),"",VLOOKUP(F47,'Base Locations'!$A$1:$F$341,2))</f>
         <v/>
       </c>
       <c r="H47" s="41"/>
       <c r="I47" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(H47,'Base Locations'!A46:F386,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(H47,'Base Locations'!A46:F386,2)),"",VLOOKUP(H47,'Base Locations'!A46:F386,2))</f>
         <v/>
       </c>
       <c r="J47" s="41"/>
@@ -10756,42 +10747,42 @@
       <c r="L47" s="41"/>
       <c r="M47" s="41"/>
       <c r="N47" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(M47,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(M47,Services!$A$1:$B$45,2)),"",VLOOKUP(M47,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="O47" s="41"/>
       <c r="P47" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(O47,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(O47,Services!$A$1:$B$45,2)),"",VLOOKUP(O47,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="Q47" s="41"/>
       <c r="R47" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(Q47,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(Q47,Services!$A$1:$B$45,2)),"",VLOOKUP(Q47,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="S47" s="41"/>
       <c r="T47" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(S47,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(S47,Services!$A$1:$B$45,2)),"",VLOOKUP(S47,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="U47" s="41"/>
       <c r="V47" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(U47,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(U47,Services!$A$1:$B$45,2)),"",VLOOKUP(U47,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="W47" s="41"/>
       <c r="X47" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(W47,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(W47,Services!$A$1:$B$45,2)),"",VLOOKUP(W47,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="Y47" s="41"/>
       <c r="Z47" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(Y47,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(Y47,Services!$A$1:$B$45,2)),"",VLOOKUP(Y47,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="AA47" s="41"/>
       <c r="AB47" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(AA47,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(AA47,Services!$A$1:$B$45,2)),"",VLOOKUP(AA47,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="AC47" s="41"/>
@@ -10803,17 +10794,17 @@
       <c r="C48" s="42"/>
       <c r="D48" s="41"/>
       <c r="E48" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(D48,Region!$A$2:$B$11,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(D48,Region!$A$2:$B$11,2)),"",VLOOKUP(D48,Region!$A$2:$B$11,2))</f>
         <v/>
       </c>
       <c r="F48" s="41"/>
       <c r="G48" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F48,'Base Locations'!$A$1:$F$341,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(F48,'Base Locations'!$A$1:$F$341,2)),"",VLOOKUP(F48,'Base Locations'!$A$1:$F$341,2))</f>
         <v/>
       </c>
       <c r="H48" s="41"/>
       <c r="I48" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(H48,'Base Locations'!A47:F387,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(H48,'Base Locations'!A47:F387,2)),"",VLOOKUP(H48,'Base Locations'!A47:F387,2))</f>
         <v/>
       </c>
       <c r="J48" s="41"/>
@@ -10821,42 +10812,42 @@
       <c r="L48" s="41"/>
       <c r="M48" s="41"/>
       <c r="N48" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(M48,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(M48,Services!$A$1:$B$45,2)),"",VLOOKUP(M48,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="O48" s="41"/>
       <c r="P48" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(O48,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(O48,Services!$A$1:$B$45,2)),"",VLOOKUP(O48,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="Q48" s="41"/>
       <c r="R48" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(Q48,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(Q48,Services!$A$1:$B$45,2)),"",VLOOKUP(Q48,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="S48" s="41"/>
       <c r="T48" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(S48,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(S48,Services!$A$1:$B$45,2)),"",VLOOKUP(S48,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="U48" s="41"/>
       <c r="V48" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(U48,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(U48,Services!$A$1:$B$45,2)),"",VLOOKUP(U48,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="W48" s="41"/>
       <c r="X48" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(W48,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(W48,Services!$A$1:$B$45,2)),"",VLOOKUP(W48,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="Y48" s="41"/>
       <c r="Z48" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(Y48,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(Y48,Services!$A$1:$B$45,2)),"",VLOOKUP(Y48,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="AA48" s="41"/>
       <c r="AB48" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(AA48,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(AA48,Services!$A$1:$B$45,2)),"",VLOOKUP(AA48,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="AC48" s="41"/>
@@ -10868,17 +10859,17 @@
       <c r="C49" s="42"/>
       <c r="D49" s="41"/>
       <c r="E49" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(D49,Region!$A$2:$B$11,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(D49,Region!$A$2:$B$11,2)),"",VLOOKUP(D49,Region!$A$2:$B$11,2))</f>
         <v/>
       </c>
       <c r="F49" s="41"/>
       <c r="G49" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F49,'Base Locations'!$A$1:$F$341,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(F49,'Base Locations'!$A$1:$F$341,2)),"",VLOOKUP(F49,'Base Locations'!$A$1:$F$341,2))</f>
         <v/>
       </c>
       <c r="H49" s="41"/>
       <c r="I49" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(H49,'Base Locations'!A48:F388,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(H49,'Base Locations'!A48:F388,2)),"",VLOOKUP(H49,'Base Locations'!A48:F388,2))</f>
         <v/>
       </c>
       <c r="J49" s="41"/>
@@ -10886,42 +10877,42 @@
       <c r="L49" s="41"/>
       <c r="M49" s="41"/>
       <c r="N49" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(M49,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(M49,Services!$A$1:$B$45,2)),"",VLOOKUP(M49,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="O49" s="41"/>
       <c r="P49" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(O49,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(O49,Services!$A$1:$B$45,2)),"",VLOOKUP(O49,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="Q49" s="41"/>
       <c r="R49" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(Q49,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(Q49,Services!$A$1:$B$45,2)),"",VLOOKUP(Q49,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="S49" s="41"/>
       <c r="T49" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(S49,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(S49,Services!$A$1:$B$45,2)),"",VLOOKUP(S49,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="U49" s="41"/>
       <c r="V49" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(U49,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(U49,Services!$A$1:$B$45,2)),"",VLOOKUP(U49,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="W49" s="41"/>
       <c r="X49" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(W49,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(W49,Services!$A$1:$B$45,2)),"",VLOOKUP(W49,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="Y49" s="41"/>
       <c r="Z49" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(Y49,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(Y49,Services!$A$1:$B$45,2)),"",VLOOKUP(Y49,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="AA49" s="41"/>
       <c r="AB49" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(AA49,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(AA49,Services!$A$1:$B$45,2)),"",VLOOKUP(AA49,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="AC49" s="41"/>
@@ -10933,17 +10924,17 @@
       <c r="C50" s="42"/>
       <c r="D50" s="41"/>
       <c r="E50" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(D50,Region!$A$2:$B$11,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(D50,Region!$A$2:$B$11,2)),"",VLOOKUP(D50,Region!$A$2:$B$11,2))</f>
         <v/>
       </c>
       <c r="F50" s="41"/>
       <c r="G50" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F50,'Base Locations'!$A$1:$F$341,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(F50,'Base Locations'!$A$1:$F$341,2)),"",VLOOKUP(F50,'Base Locations'!$A$1:$F$341,2))</f>
         <v/>
       </c>
       <c r="H50" s="41"/>
       <c r="I50" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(H50,'Base Locations'!A49:F389,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(H50,'Base Locations'!A49:F389,2)),"",VLOOKUP(H50,'Base Locations'!A49:F389,2))</f>
         <v/>
       </c>
       <c r="J50" s="41"/>
@@ -10951,49 +10942,49 @@
       <c r="L50" s="41"/>
       <c r="M50" s="41"/>
       <c r="N50" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(M50,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(M50,Services!$A$1:$B$45,2)),"",VLOOKUP(M50,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="O50" s="41"/>
       <c r="P50" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(O50,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(O50,Services!$A$1:$B$45,2)),"",VLOOKUP(O50,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="Q50" s="41"/>
       <c r="R50" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(Q50,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(Q50,Services!$A$1:$B$45,2)),"",VLOOKUP(Q50,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="S50" s="41"/>
       <c r="T50" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(S50,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(S50,Services!$A$1:$B$45,2)),"",VLOOKUP(S50,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="U50" s="41"/>
       <c r="V50" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(U50,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(U50,Services!$A$1:$B$45,2)),"",VLOOKUP(U50,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="W50" s="41"/>
       <c r="X50" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(W50,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(W50,Services!$A$1:$B$45,2)),"",VLOOKUP(W50,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="Y50" s="41"/>
       <c r="Z50" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(Y50,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(Y50,Services!$A$1:$B$45,2)),"",VLOOKUP(Y50,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="AA50" s="41"/>
       <c r="AB50" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(AA50,Services!$A$1:$B$45,2),"")</f>
+        <f>IF(ISNA(VLOOKUP(AA50,Services!$A$1:$B$45,2)),"",VLOOKUP(AA50,Services!$A$1:$B$45,2))</f>
         <v/>
       </c>
       <c r="AC50" s="41"/>
       <c r="AD50" s="41"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="WAaZ35wRl78ipiLsjfD57CyB3HV/XTkh+AkpuITrgzbsCulipizsGtzZA633/Z+avY7gs2bxn5onauLD9tGmuQ==" saltValue="T3F9NByxyx7ZjTQE4ykYyg==" spinCount="100000" sheet="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="6oyb3rRRfKDqti5GQJdNRgETALv5BhypIRzP7ad5VgVRdJpgy9LUEIpAIaOgXLHmnqidCaz2KGK7nd1sygRpVQ==" saltValue="jaug0yiNYL4uUSxB9UIkgQ==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
@@ -11054,7 +11045,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.5" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
@@ -11100,7 +11091,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="28.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
@@ -11475,7 +11466,7 @@
   <sheetPr>
     <tabColor theme="7"/>
   </sheetPr>
-  <dimension ref="A1:G742"/>
+  <dimension ref="A1:F742"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
@@ -11483,13 +11474,13 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="48.5" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14" style="16" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.5" style="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13" style="22" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="39.83203125" style="19" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.5" style="25" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="51.5" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="48.5" customWidth="1"/>
+    <col min="2" max="2" width="14" style="16" customWidth="1"/>
+    <col min="3" max="3" width="12.5" style="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" style="22" customWidth="1"/>
+    <col min="5" max="5" width="39.83203125" style="19" customWidth="1"/>
+    <col min="6" max="6" width="15.5" style="25" customWidth="1"/>
+    <col min="7" max="7" width="51.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -18808,8 +18799,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.1640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="9.5" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="27.1640625" customWidth="1"/>
+    <col min="2" max="2" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">

--- a/src/test/resources/Staff Data Upload With Formula.xlsx
+++ b/src/test/resources/Staff Data Upload With Formula.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/m_224557/Documents/GitHub/duplicate/rd-caseworker-ref-api/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B17E3FB6-3781-7447-B1E6-573259D1E572}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18FE7308-0A79-6F4D-A773-8155174FFC19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19540" activeTab="2" xr2:uid="{C3779BBE-D7A5-4756-9223-DEADF9C5B8AB}"/>
   </bookViews>
   <sheets>
     <sheet name="Guidance" sheetId="11" r:id="rId1"/>
     <sheet name="Terminology" sheetId="12" r:id="rId2"/>
-    <sheet name="Case Worker Data" sheetId="1" r:id="rId3"/>
+    <sheet name="Staff Data" sheetId="1" r:id="rId3"/>
     <sheet name="User Type" sheetId="9" state="hidden" r:id="rId4"/>
     <sheet name="Services" sheetId="7" state="hidden" r:id="rId5"/>
     <sheet name="Base Locations" sheetId="6" state="hidden" r:id="rId6"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1859" uniqueCount="1200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1859" uniqueCount="1208">
   <si>
     <t>Region</t>
   </si>
@@ -3378,30 +3378,6 @@
   </si>
   <si>
     <t>Primary Base Location ID</t>
-  </si>
-  <si>
-    <t>Area of Work2 ID</t>
-  </si>
-  <si>
-    <t>Area of Work1 ID</t>
-  </si>
-  <si>
-    <t>Area of Work3 ID</t>
-  </si>
-  <si>
-    <t>Area of Work4 ID</t>
-  </si>
-  <si>
-    <t>Area of Work5 ID</t>
-  </si>
-  <si>
-    <t>Area of Work6 ID</t>
-  </si>
-  <si>
-    <t>Area of Work7 ID</t>
-  </si>
-  <si>
-    <t>Area of Work8 ID</t>
   </si>
   <si>
     <t>Suspended</t>
@@ -3644,6 +3620,54 @@
   </si>
   <si>
     <t>caseworker-iac</t>
+  </si>
+  <si>
+    <t>Service1</t>
+  </si>
+  <si>
+    <t>Service1 ID</t>
+  </si>
+  <si>
+    <t>Service2</t>
+  </si>
+  <si>
+    <t>Service2 ID</t>
+  </si>
+  <si>
+    <t>Service3</t>
+  </si>
+  <si>
+    <t>Service3 ID</t>
+  </si>
+  <si>
+    <t>Service4</t>
+  </si>
+  <si>
+    <t>Service4 ID</t>
+  </si>
+  <si>
+    <t>Service5</t>
+  </si>
+  <si>
+    <t>Service5 ID</t>
+  </si>
+  <si>
+    <t>Service6</t>
+  </si>
+  <si>
+    <t>Service6 ID</t>
+  </si>
+  <si>
+    <t>Service7</t>
+  </si>
+  <si>
+    <t>Service7 ID</t>
+  </si>
+  <si>
+    <t>Service8</t>
+  </si>
+  <si>
+    <t>Service8 ID</t>
   </si>
 </sst>
 </file>
@@ -4948,7 +4972,7 @@
     <row r="1" spans="1:28" ht="26" x14ac:dyDescent="0.3">
       <c r="A1" s="30"/>
       <c r="B1" s="31" t="s">
-        <v>1172</v>
+        <v>1164</v>
       </c>
       <c r="C1" s="30"/>
       <c r="D1" s="30"/>
@@ -5732,7 +5756,7 @@
     <row r="29" spans="1:28" ht="26" x14ac:dyDescent="0.3">
       <c r="A29" s="30"/>
       <c r="B29" s="31" t="s">
-        <v>1173</v>
+        <v>1165</v>
       </c>
       <c r="C29" s="30"/>
       <c r="D29" s="30"/>
@@ -6576,7 +6600,7 @@
     <row r="59" spans="1:28" ht="26" x14ac:dyDescent="0.3">
       <c r="A59" s="30"/>
       <c r="B59" s="31" t="s">
-        <v>1174</v>
+        <v>1166</v>
       </c>
       <c r="C59" s="30"/>
       <c r="D59" s="30"/>
@@ -7454,34 +7478,34 @@
   <sheetData>
     <row r="1" spans="1:2" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="33" t="s">
-        <v>1175</v>
+        <v>1167</v>
       </c>
       <c r="B1" s="33" t="s">
-        <v>1176</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="34" t="s">
-        <v>1177</v>
+        <v>1169</v>
       </c>
       <c r="B2" t="s">
-        <v>1178</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="34" t="s">
-        <v>1179</v>
+        <v>1171</v>
       </c>
       <c r="B3" t="s">
-        <v>1180</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="34" t="s">
-        <v>1181</v>
+        <v>1173</v>
       </c>
       <c r="B4" t="s">
-        <v>1182</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -7489,7 +7513,7 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>1183</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -7497,15 +7521,15 @@
         <v>55</v>
       </c>
       <c r="B6" t="s">
-        <v>1184</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="34" t="s">
-        <v>1185</v>
+        <v>1177</v>
       </c>
       <c r="B7" t="s">
-        <v>1186</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -7513,15 +7537,15 @@
         <v>56</v>
       </c>
       <c r="B8" t="s">
-        <v>1187</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="34" t="s">
-        <v>1188</v>
+        <v>1180</v>
       </c>
       <c r="B9" t="s">
-        <v>1189</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="48" x14ac:dyDescent="0.2">
@@ -7529,7 +7553,7 @@
         <v>54</v>
       </c>
       <c r="B10" s="35" t="s">
-        <v>1190</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -7537,7 +7561,7 @@
         <v>410</v>
       </c>
       <c r="B11" t="s">
-        <v>1191</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -7545,7 +7569,7 @@
         <v>411</v>
       </c>
       <c r="B12" t="s">
-        <v>1192</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -7553,7 +7577,7 @@
         <v>57</v>
       </c>
       <c r="B13" t="s">
-        <v>1193</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -7561,7 +7585,7 @@
         <v>58</v>
       </c>
       <c r="B14" t="s">
-        <v>1193</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -7569,7 +7593,7 @@
         <v>59</v>
       </c>
       <c r="B15" t="s">
-        <v>1193</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -7577,7 +7601,7 @@
         <v>60</v>
       </c>
       <c r="B16" t="s">
-        <v>1193</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -7585,7 +7609,7 @@
         <v>61</v>
       </c>
       <c r="B17" t="s">
-        <v>1193</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -7593,7 +7617,7 @@
         <v>62</v>
       </c>
       <c r="B18" t="s">
-        <v>1193</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -7601,7 +7625,7 @@
         <v>63</v>
       </c>
       <c r="B19" t="s">
-        <v>1193</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -7609,7 +7633,7 @@
         <v>64</v>
       </c>
       <c r="B20" t="s">
-        <v>1193</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -7617,15 +7641,15 @@
         <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>1194</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="34" t="s">
-        <v>1195</v>
+        <v>1187</v>
       </c>
       <c r="B22" t="s">
-        <v>1196</v>
+        <v>1188</v>
       </c>
     </row>
   </sheetData>
@@ -7641,8 +7665,8 @@
   </sheetPr>
   <dimension ref="A1:AD50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7705,7 +7729,7 @@
         <v>56</v>
       </c>
       <c r="I1" s="26" t="s">
-        <v>1197</v>
+        <v>1189</v>
       </c>
       <c r="J1" s="36" t="s">
         <v>54</v>
@@ -7717,72 +7741,72 @@
         <v>411</v>
       </c>
       <c r="M1" s="38" t="s">
-        <v>57</v>
+        <v>1192</v>
       </c>
       <c r="N1" s="27" t="s">
-        <v>1113</v>
+        <v>1193</v>
       </c>
       <c r="O1" s="36" t="s">
-        <v>58</v>
+        <v>1194</v>
       </c>
       <c r="P1" s="29" t="s">
-        <v>1112</v>
+        <v>1195</v>
       </c>
       <c r="Q1" s="39" t="s">
-        <v>59</v>
+        <v>1196</v>
       </c>
       <c r="R1" s="29" t="s">
-        <v>1114</v>
+        <v>1197</v>
       </c>
       <c r="S1" s="38" t="s">
-        <v>60</v>
+        <v>1198</v>
       </c>
       <c r="T1" s="29" t="s">
-        <v>1115</v>
+        <v>1199</v>
       </c>
       <c r="U1" s="38" t="s">
-        <v>61</v>
+        <v>1200</v>
       </c>
       <c r="V1" s="28" t="s">
-        <v>1116</v>
+        <v>1201</v>
       </c>
       <c r="W1" s="38" t="s">
-        <v>62</v>
+        <v>1202</v>
       </c>
       <c r="X1" s="28" t="s">
-        <v>1117</v>
+        <v>1203</v>
       </c>
       <c r="Y1" s="38" t="s">
-        <v>63</v>
+        <v>1204</v>
       </c>
       <c r="Z1" s="28" t="s">
-        <v>1118</v>
+        <v>1205</v>
       </c>
       <c r="AA1" s="38" t="s">
-        <v>64</v>
+        <v>1206</v>
       </c>
       <c r="AB1" s="28" t="s">
-        <v>1119</v>
+        <v>1207</v>
       </c>
       <c r="AC1" s="38" t="s">
         <v>2</v>
       </c>
       <c r="AD1" s="43" t="s">
-        <v>1120</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2" s="41" t="str">
         <f ca="1">TEXT(RANDBETWEEN(0,9999),"0000")&amp;CHAR(RANDBETWEEN(97,122))&amp;CHAR(RANDBETWEEN(97,122))</f>
-        <v>3594ks</v>
+        <v>7067ft</v>
       </c>
       <c r="B2" s="41" t="str">
         <f ca="1">TEXT(RANDBETWEEN(0,9999),"0000")&amp;CHAR(RANDBETWEEN(97,122))&amp;CHAR(RANDBETWEEN(97,122))</f>
-        <v>4042fo</v>
+        <v>0749ti</v>
       </c>
       <c r="C2" s="42" t="str">
         <f ca="1">CONCATENATE(A2,".",B2,RANDBETWEEN(1,999999),"@","justice.gov.uk")</f>
-        <v>3594ks.4042fo29706@justice.gov.uk</v>
+        <v>7067ft.0749ti550381@justice.gov.uk</v>
       </c>
       <c r="D2" s="41" t="s">
         <v>5</v>
@@ -7815,7 +7839,7 @@
         <v>408</v>
       </c>
       <c r="M2" s="41" t="s">
-        <v>1169</v>
+        <v>1161</v>
       </c>
       <c r="N2" s="1" t="str">
         <f>IF(ISNA(VLOOKUP(M2,Services!$A$1:$B$45,2)),"",VLOOKUP(M2,Services!$A$1:$B$45,2))</f>
@@ -7857,10 +7881,10 @@
         <v/>
       </c>
       <c r="AC2" s="41" t="s">
-        <v>1199</v>
+        <v>1191</v>
       </c>
       <c r="AD2" s="41" t="s">
-        <v>1121</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.2">
@@ -10984,7 +11008,7 @@
       <c r="AD50" s="41"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="6oyb3rRRfKDqti5GQJdNRgETALv5BhypIRzP7ad5VgVRdJpgy9LUEIpAIaOgXLHmnqidCaz2KGK7nd1sygRpVQ==" saltValue="jaug0yiNYL4uUSxB9UIkgQ==" spinCount="100000" sheet="1" selectLockedCells="1"/>
+  <sheetProtection selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
@@ -11058,7 +11082,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1198</v>
+        <v>1190</v>
       </c>
       <c r="B2">
         <v>2</v>
@@ -11099,7 +11123,7 @@
         <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>1122</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -11107,47 +11131,47 @@
         <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>1123</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1167</v>
+        <v>1159</v>
       </c>
       <c r="B3" t="s">
-        <v>1124</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>1168</v>
+        <v>1160</v>
       </c>
       <c r="B4" t="s">
-        <v>1125</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>1169</v>
+        <v>1161</v>
       </c>
       <c r="B5" t="s">
-        <v>1126</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>1170</v>
+        <v>1162</v>
       </c>
       <c r="B6" t="s">
-        <v>1127</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>1171</v>
+        <v>1163</v>
       </c>
       <c r="B7" t="s">
-        <v>1128</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -11155,7 +11179,7 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>1129</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -11163,7 +11187,7 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>1130</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -11171,7 +11195,7 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>1131</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -11179,7 +11203,7 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>1132</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -11187,7 +11211,7 @@
         <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>1133</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -11195,7 +11219,7 @@
         <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>1134</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -11203,7 +11227,7 @@
         <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>1135</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -11211,7 +11235,7 @@
         <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>1136</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -11219,7 +11243,7 @@
         <v>21</v>
       </c>
       <c r="B16" t="s">
-        <v>1137</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -11227,7 +11251,7 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>1138</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -11235,7 +11259,7 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>1139</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -11243,7 +11267,7 @@
         <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>1140</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -11251,7 +11275,7 @@
         <v>25</v>
       </c>
       <c r="B20" t="s">
-        <v>1141</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -11259,7 +11283,7 @@
         <v>26</v>
       </c>
       <c r="B21" t="s">
-        <v>1142</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -11267,7 +11291,7 @@
         <v>27</v>
       </c>
       <c r="B22" t="s">
-        <v>1143</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -11275,7 +11299,7 @@
         <v>28</v>
       </c>
       <c r="B23" t="s">
-        <v>1144</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -11283,7 +11307,7 @@
         <v>29</v>
       </c>
       <c r="B24" t="s">
-        <v>1145</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -11291,7 +11315,7 @@
         <v>30</v>
       </c>
       <c r="B25" t="s">
-        <v>1146</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -11299,7 +11323,7 @@
         <v>31</v>
       </c>
       <c r="B26" t="s">
-        <v>1147</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -11307,7 +11331,7 @@
         <v>32</v>
       </c>
       <c r="B27" t="s">
-        <v>1148</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -11315,7 +11339,7 @@
         <v>33</v>
       </c>
       <c r="B28" t="s">
-        <v>1149</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
@@ -11323,7 +11347,7 @@
         <v>34</v>
       </c>
       <c r="B29" t="s">
-        <v>1150</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
@@ -11331,7 +11355,7 @@
         <v>35</v>
       </c>
       <c r="B30" t="s">
-        <v>1151</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
@@ -11339,7 +11363,7 @@
         <v>36</v>
       </c>
       <c r="B31" t="s">
-        <v>1152</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
@@ -11347,7 +11371,7 @@
         <v>37</v>
       </c>
       <c r="B32" t="s">
-        <v>1153</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -11355,7 +11379,7 @@
         <v>38</v>
       </c>
       <c r="B33" t="s">
-        <v>1154</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
@@ -11363,7 +11387,7 @@
         <v>39</v>
       </c>
       <c r="B34" t="s">
-        <v>1155</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
@@ -11371,7 +11395,7 @@
         <v>40</v>
       </c>
       <c r="B35" t="s">
-        <v>1156</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
@@ -11379,7 +11403,7 @@
         <v>41</v>
       </c>
       <c r="B36" t="s">
-        <v>1157</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
@@ -11387,7 +11411,7 @@
         <v>42</v>
       </c>
       <c r="B37" t="s">
-        <v>1158</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
@@ -11395,7 +11419,7 @@
         <v>43</v>
       </c>
       <c r="B38" t="s">
-        <v>1159</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
@@ -11403,7 +11427,7 @@
         <v>44</v>
       </c>
       <c r="B39" t="s">
-        <v>1160</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
@@ -11411,7 +11435,7 @@
         <v>45</v>
       </c>
       <c r="B40" t="s">
-        <v>1161</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
@@ -11419,7 +11443,7 @@
         <v>46</v>
       </c>
       <c r="B41" t="s">
-        <v>1162</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
@@ -11427,7 +11451,7 @@
         <v>47</v>
       </c>
       <c r="B42" t="s">
-        <v>1163</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
@@ -11435,7 +11459,7 @@
         <v>48</v>
       </c>
       <c r="B43" t="s">
-        <v>1164</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
@@ -11443,7 +11467,7 @@
         <v>49</v>
       </c>
       <c r="B44" t="s">
-        <v>1165</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
@@ -11451,7 +11475,7 @@
         <v>50</v>
       </c>
       <c r="B45" t="s">
-        <v>1166</v>
+        <v>1158</v>
       </c>
     </row>
   </sheetData>
@@ -18837,7 +18861,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>1121</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">

--- a/src/test/resources/Staff Data Upload With Formula.xlsx
+++ b/src/test/resources/Staff Data Upload With Formula.xlsx
@@ -1,27 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/m_224557/Documents/GitHub/duplicate/rd-caseworker-ref-api/src/test/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/m_2088737/IdeaProjects/refdata_workspace/RDCC-5182/rd-caseworker-ref-api/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18FE7308-0A79-6F4D-A773-8155174FFC19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{873DB765-F640-8A49-AFE4-57DE95AEF8D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19540" activeTab="2" xr2:uid="{C3779BBE-D7A5-4756-9223-DEADF9C5B8AB}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19540" activeTab="1" xr2:uid="{C3779BBE-D7A5-4756-9223-DEADF9C5B8AB}"/>
   </bookViews>
   <sheets>
     <sheet name="Guidance" sheetId="11" r:id="rId1"/>
-    <sheet name="Terminology" sheetId="12" r:id="rId2"/>
-    <sheet name="Staff Data" sheetId="1" r:id="rId3"/>
-    <sheet name="User Type" sheetId="9" state="hidden" r:id="rId4"/>
-    <sheet name="Services" sheetId="7" state="hidden" r:id="rId5"/>
-    <sheet name="Base Locations" sheetId="6" state="hidden" r:id="rId6"/>
-    <sheet name="Region" sheetId="3" state="hidden" r:id="rId7"/>
-    <sheet name="Roles" sheetId="4" state="hidden" r:id="rId8"/>
-    <sheet name="Validations" sheetId="10" state="hidden" r:id="rId9"/>
+    <sheet name="VERSION" sheetId="13" r:id="rId2"/>
+    <sheet name="Terminology" sheetId="12" r:id="rId3"/>
+    <sheet name="Staff Data" sheetId="1" r:id="rId4"/>
+    <sheet name="User Type" sheetId="9" state="hidden" r:id="rId5"/>
+    <sheet name="Services" sheetId="7" state="hidden" r:id="rId6"/>
+    <sheet name="Base Locations" sheetId="6" state="hidden" r:id="rId7"/>
+    <sheet name="Region" sheetId="3" state="hidden" r:id="rId8"/>
+    <sheet name="Roles" sheetId="4" state="hidden" r:id="rId9"/>
+    <sheet name="Validations" sheetId="10" state="hidden" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1859" uniqueCount="1208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1861" uniqueCount="1210">
   <si>
     <t>Region</t>
   </si>
@@ -3668,6 +3669,12 @@
   </si>
   <si>
     <t>Service8 ID</t>
+  </si>
+  <si>
+    <t>File version</t>
+  </si>
+  <si>
+    <t>vx.xx</t>
   </si>
 </sst>
 </file>
@@ -7459,7 +7466,56 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AF6684E-13C2-44AC-9BB0-45674920F5DD}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="D22dSHc3htXuo0x/4I3E9zXiFJcvy3Um+2pZMVdKjhStG73OU02OP04I/9LO7uth2Ls3E1T7wBkvo4tC4iIMtQ==" saltValue="zUVhzd2HkNeGZm+LUf4U+A==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2504495D-88BC-C749-959B-9DA478817E3B}">
+  <dimension ref="A6:B6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>1208</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBA3DD7B-56C8-415F-8BF5-7830E7EEFD36}">
   <sheetPr>
     <tabColor theme="8"/>
@@ -7658,14 +7714,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{535C96D2-347F-4382-9909-BFD50517035D}">
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
   <dimension ref="A1:AD50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+    <sheetView topLeftCell="M1" workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
@@ -7798,15 +7854,15 @@
     <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2" s="41" t="str">
         <f ca="1">TEXT(RANDBETWEEN(0,9999),"0000")&amp;CHAR(RANDBETWEEN(97,122))&amp;CHAR(RANDBETWEEN(97,122))</f>
-        <v>7067ft</v>
+        <v>5733si</v>
       </c>
       <c r="B2" s="41" t="str">
         <f ca="1">TEXT(RANDBETWEEN(0,9999),"0000")&amp;CHAR(RANDBETWEEN(97,122))&amp;CHAR(RANDBETWEEN(97,122))</f>
-        <v>0749ti</v>
+        <v>0500ba</v>
       </c>
       <c r="C2" s="42" t="str">
         <f ca="1">CONCATENATE(A2,".",B2,RANDBETWEEN(1,999999),"@","justice.gov.uk")</f>
-        <v>7067ft.0749ti550381@justice.gov.uk</v>
+        <v>5733si.0500ba935860@justice.gov.uk</v>
       </c>
       <c r="D2" s="41" t="s">
         <v>5</v>
@@ -11056,7 +11112,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55979B3E-2A8A-4780-BEB6-4F2717396A4D}">
   <sheetPr>
     <tabColor theme="7"/>
@@ -11102,7 +11158,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCA924CA-E283-4D75-8C37-FFE0D56B674F}">
   <sheetPr>
     <tabColor theme="7"/>
@@ -11485,7 +11541,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C18EAE82-4C6E-4D34-88FC-425D89B632D4}">
   <sheetPr>
     <tabColor theme="7"/>
@@ -18719,7 +18775,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9252D81-E1C7-47AA-BB50-43B308C890E9}">
   <sheetPr>
     <tabColor theme="7"/>
@@ -18810,7 +18866,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{175CCEB2-E456-408C-B252-200A77CE2E77}">
   <sheetPr>
     <tabColor theme="7"/>
@@ -18847,30 +18903,4 @@
   <sheetProtection algorithmName="SHA-512" hashValue="K9Ci/eHmkmskFS0u1ZcnQkRZSqVBH/Kvod5Cg143QmMMqKBzxu71t7mKY0rKC7jAIRToE1wAYtCUnAacyc3hTg==" saltValue="vAGcL88qkz3LKuOeKothwQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AF6684E-13C2-44AC-9BB0-45674920F5DD}">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>1113</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-  </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="D22dSHc3htXuo0x/4I3E9zXiFJcvy3Um+2pZMVdKjhStG73OU02OP04I/9LO7uth2Ls3E1T7wBkvo4tC4iIMtQ==" saltValue="zUVhzd2HkNeGZm+LUf4U+A==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/src/test/resources/Staff Data Upload With Formula.xlsx
+++ b/src/test/resources/Staff Data Upload With Formula.xlsx
@@ -1,28 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/m_2088737/IdeaProjects/refdata_workspace/RDCC-5182/rd-caseworker-ref-api/src/test/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/m_224557/Documents/GitHub/duplicate/rd-caseworker-ref-api/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{873DB765-F640-8A49-AFE4-57DE95AEF8D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18FE7308-0A79-6F4D-A773-8155174FFC19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19540" activeTab="1" xr2:uid="{C3779BBE-D7A5-4756-9223-DEADF9C5B8AB}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19540" activeTab="2" xr2:uid="{C3779BBE-D7A5-4756-9223-DEADF9C5B8AB}"/>
   </bookViews>
   <sheets>
     <sheet name="Guidance" sheetId="11" r:id="rId1"/>
-    <sheet name="VERSION" sheetId="13" r:id="rId2"/>
-    <sheet name="Terminology" sheetId="12" r:id="rId3"/>
-    <sheet name="Staff Data" sheetId="1" r:id="rId4"/>
-    <sheet name="User Type" sheetId="9" state="hidden" r:id="rId5"/>
-    <sheet name="Services" sheetId="7" state="hidden" r:id="rId6"/>
-    <sheet name="Base Locations" sheetId="6" state="hidden" r:id="rId7"/>
-    <sheet name="Region" sheetId="3" state="hidden" r:id="rId8"/>
-    <sheet name="Roles" sheetId="4" state="hidden" r:id="rId9"/>
-    <sheet name="Validations" sheetId="10" state="hidden" r:id="rId10"/>
+    <sheet name="Terminology" sheetId="12" r:id="rId2"/>
+    <sheet name="Staff Data" sheetId="1" r:id="rId3"/>
+    <sheet name="User Type" sheetId="9" state="hidden" r:id="rId4"/>
+    <sheet name="Services" sheetId="7" state="hidden" r:id="rId5"/>
+    <sheet name="Base Locations" sheetId="6" state="hidden" r:id="rId6"/>
+    <sheet name="Region" sheetId="3" state="hidden" r:id="rId7"/>
+    <sheet name="Roles" sheetId="4" state="hidden" r:id="rId8"/>
+    <sheet name="Validations" sheetId="10" state="hidden" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1861" uniqueCount="1210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1859" uniqueCount="1208">
   <si>
     <t>Region</t>
   </si>
@@ -3669,12 +3668,6 @@
   </si>
   <si>
     <t>Service8 ID</t>
-  </si>
-  <si>
-    <t>File version</t>
-  </si>
-  <si>
-    <t>vx.xx</t>
   </si>
 </sst>
 </file>
@@ -7466,56 +7459,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AF6684E-13C2-44AC-9BB0-45674920F5DD}">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>1113</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-  </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="D22dSHc3htXuo0x/4I3E9zXiFJcvy3Um+2pZMVdKjhStG73OU02OP04I/9LO7uth2Ls3E1T7wBkvo4tC4iIMtQ==" saltValue="zUVhzd2HkNeGZm+LUf4U+A==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2504495D-88BC-C749-959B-9DA478817E3B}">
-  <dimension ref="A6:B6"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>1208</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1209</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBA3DD7B-56C8-415F-8BF5-7830E7EEFD36}">
   <sheetPr>
     <tabColor theme="8"/>
@@ -7714,14 +7658,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{535C96D2-347F-4382-9909-BFD50517035D}">
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
   <dimension ref="A1:AD50"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
@@ -7854,15 +7798,15 @@
     <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2" s="41" t="str">
         <f ca="1">TEXT(RANDBETWEEN(0,9999),"0000")&amp;CHAR(RANDBETWEEN(97,122))&amp;CHAR(RANDBETWEEN(97,122))</f>
-        <v>5733si</v>
+        <v>7067ft</v>
       </c>
       <c r="B2" s="41" t="str">
         <f ca="1">TEXT(RANDBETWEEN(0,9999),"0000")&amp;CHAR(RANDBETWEEN(97,122))&amp;CHAR(RANDBETWEEN(97,122))</f>
-        <v>0500ba</v>
+        <v>0749ti</v>
       </c>
       <c r="C2" s="42" t="str">
         <f ca="1">CONCATENATE(A2,".",B2,RANDBETWEEN(1,999999),"@","justice.gov.uk")</f>
-        <v>5733si.0500ba935860@justice.gov.uk</v>
+        <v>7067ft.0749ti550381@justice.gov.uk</v>
       </c>
       <c r="D2" s="41" t="s">
         <v>5</v>
@@ -11112,7 +11056,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55979B3E-2A8A-4780-BEB6-4F2717396A4D}">
   <sheetPr>
     <tabColor theme="7"/>
@@ -11158,7 +11102,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCA924CA-E283-4D75-8C37-FFE0D56B674F}">
   <sheetPr>
     <tabColor theme="7"/>
@@ -11541,7 +11485,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C18EAE82-4C6E-4D34-88FC-425D89B632D4}">
   <sheetPr>
     <tabColor theme="7"/>
@@ -18775,7 +18719,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9252D81-E1C7-47AA-BB50-43B308C890E9}">
   <sheetPr>
     <tabColor theme="7"/>
@@ -18866,7 +18810,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{175CCEB2-E456-408C-B252-200A77CE2E77}">
   <sheetPr>
     <tabColor theme="7"/>
@@ -18903,4 +18847,30 @@
   <sheetProtection algorithmName="SHA-512" hashValue="K9Ci/eHmkmskFS0u1ZcnQkRZSqVBH/Kvod5Cg143QmMMqKBzxu71t7mKY0rKC7jAIRToE1wAYtCUnAacyc3hTg==" saltValue="vAGcL88qkz3LKuOeKothwQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AF6684E-13C2-44AC-9BB0-45674920F5DD}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="D22dSHc3htXuo0x/4I3E9zXiFJcvy3Um+2pZMVdKjhStG73OU02OP04I/9LO7uth2Ls3E1T7wBkvo4tC4iIMtQ==" saltValue="zUVhzd2HkNeGZm+LUf4U+A==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>